--- a/Data/PFAF-Projected.xlsx
+++ b/Data/PFAF-Projected.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PFAF0301 " sheetId="1" r:id="rId2"/>
+    <sheet name="PFAF0309 " sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
   <si>
-    <t xml:space="preserve">PFAF for 03/01/2023  ( Projected Universe )</t>
+    <t xml:space="preserve">PFAF for 03/09/2023  ( Projected Universe )</t>
   </si>
   <si>
     <t>Cusip</t>
@@ -1415,67 +1415,67 @@
         <v>46</v>
       </c>
       <c r="N3" s="0">
-        <v>501.192</v>
+        <v>501.119</v>
       </c>
       <c r="O3" s="0">
-        <v>76.52</v>
+        <v>73.88</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.55581</v>
+        <v>0.55077</v>
       </c>
       <c r="R3" s="0">
-        <v>0.55661</v>
+        <v>0.55653</v>
       </c>
       <c r="S3" s="0">
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="U3" s="0">
-        <v>-12</v>
+        <v>30</v>
       </c>
       <c r="V3" s="0">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="W3" s="0">
-        <v>-6</v>
+        <v>18</v>
       </c>
       <c r="X3" s="0">
-        <v>5.43</v>
+        <v>5.77</v>
       </c>
       <c r="Y3" s="0">
-        <v>5.99</v>
+        <v>6.21</v>
       </c>
       <c r="Z3" s="0">
-        <v>5.99</v>
+        <v>6.21</v>
       </c>
       <c r="AA3" s="0">
-        <v>-0.623</v>
+        <v>-4.052</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.308</v>
+        <v>-4.318</v>
       </c>
       <c r="AC3" s="0">
-        <v>11.92</v>
+        <v>12.18</v>
       </c>
       <c r="AD3" s="0">
-        <v>16.57</v>
+        <v>15.99</v>
       </c>
       <c r="AE3" s="0">
-        <v>16.57</v>
+        <v>15.99</v>
       </c>
       <c r="AF3" s="0">
-        <v>1.02</v>
+        <v>1.54</v>
       </c>
       <c r="AG3" s="0">
-        <v>5.57</v>
+        <v>5.19</v>
       </c>
       <c r="AH3" s="0">
-        <v>5.57</v>
+        <v>5.19</v>
       </c>
       <c r="AI3" s="0" t="s">
         <v>47</v>
@@ -1522,67 +1522,67 @@
         <v>46</v>
       </c>
       <c r="N4" s="0">
-        <v>330.787</v>
+        <v>330.738</v>
       </c>
       <c r="O4" s="0">
-        <v>90.56</v>
+        <v>89.32</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.43414</v>
+        <v>0.43948</v>
       </c>
       <c r="R4" s="0">
-        <v>0.43359</v>
+        <v>0.43352</v>
       </c>
       <c r="S4" s="0">
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="U4" s="0">
-        <v>-22</v>
+        <v>7</v>
       </c>
       <c r="V4" s="0">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="W4" s="0">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="X4" s="0">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="Y4" s="0">
-        <v>6.06</v>
+        <v>6.15</v>
       </c>
       <c r="Z4" s="0">
-        <v>6.06</v>
+        <v>6.15</v>
       </c>
       <c r="AA4" s="0">
-        <v>-0.352</v>
+        <v>-1.717</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.311</v>
+        <v>-1.816</v>
       </c>
       <c r="AC4" s="0">
-        <v>7.61</v>
+        <v>7.92</v>
       </c>
       <c r="AD4" s="0">
-        <v>16.38</v>
+        <v>16.15</v>
       </c>
       <c r="AE4" s="0">
-        <v>16.38</v>
+        <v>16.15</v>
       </c>
       <c r="AF4" s="0">
-        <v>-1.21</v>
+        <v>-1.05</v>
       </c>
       <c r="AG4" s="0">
-        <v>5.44</v>
+        <v>5.29</v>
       </c>
       <c r="AH4" s="0">
-        <v>5.44</v>
+        <v>5.29</v>
       </c>
       <c r="AI4" s="0" t="s">
         <v>47</v>
@@ -1629,61 +1629,61 @@
         <v>55</v>
       </c>
       <c r="N5" s="0">
-        <v>400.954</v>
+        <v>400.895</v>
       </c>
       <c r="O5" s="0">
-        <v>89</v>
+        <v>86.68</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.51717</v>
+        <v>0.51695</v>
       </c>
       <c r="R5" s="0">
-        <v>0.51654</v>
+        <v>0.51646</v>
       </c>
       <c r="S5" s="0">
         <v>0</v>
       </c>
       <c r="T5" s="0">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="U5" s="0">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="V5" s="0">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="W5" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="X5" s="0">
-        <v>9.04</v>
+        <v>9.27</v>
       </c>
       <c r="Y5" s="0">
-        <v>14.02</v>
+        <v>15.81</v>
       </c>
       <c r="Z5" s="0">
-        <v>14.02</v>
+        <v>15.81</v>
       </c>
       <c r="AA5" s="0">
-        <v>-0.358</v>
+        <v>-2.956</v>
       </c>
       <c r="AB5" s="0">
-        <v>-0.472</v>
+        <v>-3.113</v>
       </c>
       <c r="AC5" s="0">
-        <v>0.78</v>
+        <v>0.56</v>
       </c>
       <c r="AD5" s="0">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AE5" s="0">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AF5" s="0">
-        <v>-0.16</v>
+        <v>-0.19</v>
       </c>
       <c r="AG5" s="0">
         <v>0.03</v>
@@ -1736,52 +1736,52 @@
         <v>55</v>
       </c>
       <c r="N6" s="0">
-        <v>300.715</v>
+        <v>300.671</v>
       </c>
       <c r="O6" s="0">
-        <v>96.12</v>
+        <v>95.24</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.41891</v>
+        <v>0.426</v>
       </c>
       <c r="R6" s="0">
-        <v>0.4221</v>
+        <v>0.42204</v>
       </c>
       <c r="S6" s="0">
         <v>0</v>
       </c>
       <c r="T6" s="0">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="U6" s="0">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="V6" s="0">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="W6" s="0">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="X6" s="0">
-        <v>8.23</v>
+        <v>8.63</v>
       </c>
       <c r="Y6" s="0">
-        <v>8.77</v>
+        <v>9.2</v>
       </c>
       <c r="Z6" s="0">
-        <v>8.77</v>
+        <v>9.2</v>
       </c>
       <c r="AA6" s="0">
-        <v>-1.233</v>
+        <v>-2.137</v>
       </c>
       <c r="AB6" s="0">
-        <v>-1.019</v>
+        <v>-2.004</v>
       </c>
       <c r="AC6" s="0">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="AD6" s="0">
         <v>2.14</v>
@@ -1843,67 +1843,67 @@
         <v>63</v>
       </c>
       <c r="N7" s="0">
-        <v>250.596</v>
+        <v>250.559</v>
       </c>
       <c r="O7" s="0">
-        <v>85.72</v>
+        <v>83.32</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.31132</v>
+        <v>0.31057</v>
       </c>
       <c r="R7" s="0">
-        <v>0.30404</v>
+        <v>0.304</v>
       </c>
       <c r="S7" s="0">
         <v>0</v>
       </c>
       <c r="T7" s="0">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="U7" s="0">
-        <v>-49</v>
+        <v>-4</v>
       </c>
       <c r="V7" s="0">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="W7" s="0">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="X7" s="0">
-        <v>5.66</v>
+        <v>6.03</v>
       </c>
       <c r="Y7" s="0">
-        <v>6.62</v>
+        <v>6.81</v>
       </c>
       <c r="Z7" s="0">
-        <v>6.62</v>
+        <v>6.81</v>
       </c>
       <c r="AA7" s="0">
-        <v>1.902</v>
+        <v>-0.951</v>
       </c>
       <c r="AB7" s="0">
-        <v>2.699</v>
+        <v>-1.117</v>
       </c>
       <c r="AC7" s="0">
-        <v>9</v>
+        <v>9.49</v>
       </c>
       <c r="AD7" s="0">
-        <v>14.99</v>
+        <v>14.57</v>
       </c>
       <c r="AE7" s="0">
-        <v>14.99</v>
+        <v>14.57</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.41</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="0">
-        <v>4.57</v>
+        <v>4.32</v>
       </c>
       <c r="AH7" s="0">
-        <v>4.57</v>
+        <v>4.32</v>
       </c>
       <c r="AI7" s="0" t="s">
         <v>47</v>
@@ -1950,67 +1950,67 @@
         <v>63</v>
       </c>
       <c r="N8" s="0">
-        <v>250.596</v>
+        <v>250.559</v>
       </c>
       <c r="O8" s="0">
-        <v>87.48</v>
+        <v>83.88</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.31771</v>
+        <v>0.31266</v>
       </c>
       <c r="R8" s="0">
-        <v>0.31662</v>
+        <v>0.31657</v>
       </c>
       <c r="S8" s="0">
         <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="U8" s="0">
-        <v>-21</v>
+        <v>40</v>
       </c>
       <c r="V8" s="0">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="W8" s="0">
-        <v>-11</v>
+        <v>28</v>
       </c>
       <c r="X8" s="0">
-        <v>5.46</v>
+        <v>5.99</v>
       </c>
       <c r="Y8" s="0">
-        <v>6.48</v>
+        <v>6.76</v>
       </c>
       <c r="Z8" s="0">
-        <v>6.48</v>
+        <v>6.76</v>
       </c>
       <c r="AA8" s="0">
-        <v>-0.137</v>
+        <v>-4.247</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.648</v>
+        <v>-4.396</v>
       </c>
       <c r="AC8" s="0">
-        <v>9.33</v>
+        <v>9.83</v>
       </c>
       <c r="AD8" s="0">
-        <v>15.31</v>
+        <v>14.67</v>
       </c>
       <c r="AE8" s="0">
-        <v>15.31</v>
+        <v>14.67</v>
       </c>
       <c r="AF8" s="0">
-        <v>-0.12</v>
+        <v>0.51</v>
       </c>
       <c r="AG8" s="0">
-        <v>4.76</v>
+        <v>4.37</v>
       </c>
       <c r="AH8" s="0">
-        <v>4.76</v>
+        <v>4.37</v>
       </c>
       <c r="AI8" s="0" t="s">
         <v>47</v>
@@ -2057,61 +2057,61 @@
         <v>63</v>
       </c>
       <c r="N9" s="0">
-        <v>275.656</v>
+        <v>275.615</v>
       </c>
       <c r="O9" s="0">
-        <v>100.08</v>
+        <v>99.03</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>0.39982</v>
+        <v>0.40602</v>
       </c>
       <c r="R9" s="0">
-        <v>0.39774</v>
+        <v>0.39768</v>
       </c>
       <c r="S9" s="0">
         <v>0</v>
       </c>
       <c r="T9" s="0">
-        <v>60</v>
+        <v>321</v>
       </c>
       <c r="U9" s="0">
-        <v>-252</v>
+        <v>9</v>
       </c>
       <c r="V9" s="0">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="W9" s="0">
-        <v>-286</v>
+        <v>9</v>
       </c>
       <c r="X9" s="0">
-        <v>5.53</v>
+        <v>8.82</v>
       </c>
       <c r="Y9" s="0">
-        <v>5.67</v>
+        <v>10.07</v>
       </c>
       <c r="Z9" s="0">
-        <v>5.67</v>
+        <v>10.07</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.04</v>
+        <v>-1.014</v>
       </c>
       <c r="AB9" s="0">
-        <v>0.021</v>
+        <v>-1.091</v>
       </c>
       <c r="AC9" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="AD9" s="0">
         <v>0.24</v>
       </c>
-      <c r="AD9" s="0">
-        <v>0.25</v>
-      </c>
       <c r="AE9" s="0">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AF9" s="0">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AG9" s="0">
         <v>0</v>
@@ -2164,67 +2164,67 @@
         <v>72</v>
       </c>
       <c r="N10" s="0">
-        <v>501.192</v>
+        <v>501.119</v>
       </c>
       <c r="O10" s="0">
-        <v>94.08</v>
+        <v>95.28</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.68336</v>
+        <v>0.71031</v>
       </c>
       <c r="R10" s="0">
-        <v>0.68095</v>
+        <v>0.68085</v>
       </c>
       <c r="S10" s="0">
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="U10" s="0">
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="V10" s="0">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="W10" s="0">
-        <v>3</v>
+        <v>-19</v>
       </c>
       <c r="X10" s="0">
-        <v>4.39</v>
+        <v>4.01</v>
       </c>
       <c r="Y10" s="0">
-        <v>6.28</v>
+        <v>6.2</v>
       </c>
       <c r="Z10" s="0">
-        <v>6.28</v>
+        <v>6.2</v>
       </c>
       <c r="AA10" s="0">
-        <v>-0.127</v>
+        <v>1.146</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.399</v>
+        <v>1.104</v>
       </c>
       <c r="AC10" s="0">
-        <v>6.22</v>
+        <v>5.58</v>
       </c>
       <c r="AD10" s="0">
-        <v>15.75</v>
+        <v>15.95</v>
       </c>
       <c r="AE10" s="0">
-        <v>15.75</v>
+        <v>15.95</v>
       </c>
       <c r="AF10" s="0">
-        <v>-1.54</v>
+        <v>-1.75</v>
       </c>
       <c r="AG10" s="0">
-        <v>5.05</v>
+        <v>5.18</v>
       </c>
       <c r="AH10" s="0">
-        <v>5.05</v>
+        <v>5.18</v>
       </c>
       <c r="AI10" s="0" t="s">
         <v>47</v>
@@ -2271,61 +2271,61 @@
         <v>78</v>
       </c>
       <c r="N11" s="0">
-        <v>250.596</v>
+        <v>250.559</v>
       </c>
       <c r="O11" s="0">
-        <v>97.52</v>
+        <v>88.88</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.35417</v>
+        <v>0.3313</v>
       </c>
       <c r="R11" s="0">
-        <v>0.35508</v>
+        <v>0.35502</v>
       </c>
       <c r="S11" s="0">
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>280</v>
+        <v>384</v>
       </c>
       <c r="U11" s="0">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="V11" s="0">
-        <v>330</v>
+        <v>393</v>
       </c>
       <c r="W11" s="0">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="X11" s="0">
-        <v>8.24</v>
+        <v>9.69</v>
       </c>
       <c r="Y11" s="0">
-        <v>9.3</v>
+        <v>19.98</v>
       </c>
       <c r="Z11" s="0">
-        <v>9.3</v>
+        <v>19.98</v>
       </c>
       <c r="AA11" s="0">
-        <v>-0.733</v>
+        <v>-9.528</v>
       </c>
       <c r="AB11" s="0">
-        <v>-0.704</v>
+        <v>-9.513</v>
       </c>
       <c r="AC11" s="0">
-        <v>0.58</v>
+        <v>-0.46</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.1</v>
+        <v>-0.31</v>
       </c>
       <c r="AG11" s="0">
         <v>0.01</v>
@@ -2378,67 +2378,67 @@
         <v>46</v>
       </c>
       <c r="N12" s="0">
-        <v>300.715</v>
+        <v>300.671</v>
       </c>
       <c r="O12" s="0">
-        <v>87.4</v>
+        <v>85.96</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.3809</v>
+        <v>0.3845</v>
       </c>
       <c r="R12" s="0">
-        <v>0.38133</v>
+        <v>0.38127</v>
       </c>
       <c r="S12" s="0">
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="U12" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="V12" s="0">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="W12" s="0">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="X12" s="0">
-        <v>4.34</v>
+        <v>4.54</v>
       </c>
       <c r="Y12" s="0">
-        <v>5.46</v>
+        <v>5.55</v>
       </c>
       <c r="Z12" s="0">
-        <v>5.46</v>
+        <v>5.55</v>
       </c>
       <c r="AA12" s="0">
-        <v>-0.591</v>
+        <v>-2.229</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.185</v>
+        <v>-2.379</v>
       </c>
       <c r="AC12" s="0">
-        <v>9.53</v>
+        <v>9.8</v>
       </c>
       <c r="AD12" s="0">
-        <v>18.23</v>
+        <v>17.93</v>
       </c>
       <c r="AE12" s="0">
-        <v>18.23</v>
+        <v>17.93</v>
       </c>
       <c r="AF12" s="0">
-        <v>-0.77</v>
+        <v>-0.51</v>
       </c>
       <c r="AG12" s="0">
-        <v>6.72</v>
+        <v>6.5</v>
       </c>
       <c r="AH12" s="0">
-        <v>6.72</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" s="0" t="s">
         <v>47</v>
@@ -2485,67 +2485,67 @@
         <v>46</v>
       </c>
       <c r="N13" s="0">
-        <v>1152.742</v>
+        <v>1152.573</v>
       </c>
       <c r="O13" s="0">
-        <v>90.28</v>
+        <v>88</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>1.50825</v>
+        <v>1.50888</v>
       </c>
       <c r="R13" s="0">
-        <v>1.51165</v>
+        <v>1.51142</v>
       </c>
       <c r="S13" s="0">
         <v>0</v>
       </c>
       <c r="T13" s="0">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="U13" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="V13" s="0">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="W13" s="0">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="X13" s="0">
-        <v>4.32</v>
+        <v>4.69</v>
       </c>
       <c r="Y13" s="0">
-        <v>5.68</v>
+        <v>5.82</v>
       </c>
       <c r="Z13" s="0">
-        <v>5.68</v>
+        <v>5.82</v>
       </c>
       <c r="AA13" s="0">
-        <v>-0.704</v>
+        <v>-3.212</v>
       </c>
       <c r="AB13" s="0">
-        <v>-0.019</v>
+        <v>-3.315</v>
       </c>
       <c r="AC13" s="0">
-        <v>8.29</v>
+        <v>8.89</v>
       </c>
       <c r="AD13" s="0">
-        <v>17.53</v>
+        <v>17.08</v>
       </c>
       <c r="AE13" s="0">
-        <v>17.53</v>
+        <v>17.08</v>
       </c>
       <c r="AF13" s="0">
-        <v>-0.86</v>
+        <v>-0.84</v>
       </c>
       <c r="AG13" s="0">
-        <v>6.22</v>
+        <v>5.91</v>
       </c>
       <c r="AH13" s="0">
-        <v>6.22</v>
+        <v>5.91</v>
       </c>
       <c r="AI13" s="0" t="s">
         <v>47</v>
@@ -2592,19 +2592,19 @@
         <v>46</v>
       </c>
       <c r="N14" s="0">
-        <v>576.371</v>
+        <v>576.287</v>
       </c>
       <c r="O14" s="0">
-        <v>100.64</v>
+        <v>100.84</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.84066</v>
+        <v>0.86452</v>
       </c>
       <c r="R14" s="0">
-        <v>0.83629</v>
+        <v>0.83617</v>
       </c>
       <c r="S14" s="0">
         <v>0</v>
@@ -2622,37 +2622,37 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>0.38</v>
+        <v>5.67</v>
       </c>
       <c r="Y14" s="0">
-        <v>0.38</v>
+        <v>5.67</v>
       </c>
       <c r="Z14" s="0">
-        <v>5.62</v>
+        <v>5.67</v>
       </c>
       <c r="AA14" s="0">
-        <v>0.04</v>
+        <v>0.239</v>
       </c>
       <c r="AB14" s="0">
-        <v>0.029</v>
+        <v>0.135</v>
       </c>
       <c r="AC14" s="0">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AD14" s="0">
-        <v>0.16</v>
+        <v>17.4</v>
       </c>
       <c r="AE14" s="0">
-        <v>17.72</v>
+        <v>17.4</v>
       </c>
       <c r="AF14" s="0">
         <v>0</v>
       </c>
       <c r="AG14" s="0">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="AH14" s="0">
-        <v>6.35</v>
+        <v>6.17</v>
       </c>
       <c r="AI14" s="0" t="s">
         <v>47</v>
@@ -2699,67 +2699,67 @@
         <v>92</v>
       </c>
       <c r="N15" s="0">
-        <v>300.715</v>
+        <v>300.671</v>
       </c>
       <c r="O15" s="0">
-        <v>95.8</v>
+        <v>89.77</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.41751</v>
+        <v>0.40155</v>
       </c>
       <c r="R15" s="0">
-        <v>0.42037</v>
+        <v>0.4203</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="U15" s="0">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="V15" s="0">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="W15" s="0">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="X15" s="0">
-        <v>4.63</v>
+        <v>5.97</v>
       </c>
       <c r="Y15" s="0">
-        <v>6.73</v>
+        <v>7.19</v>
       </c>
       <c r="Z15" s="0">
-        <v>6.73</v>
+        <v>7.19</v>
       </c>
       <c r="AA15" s="0">
-        <v>-1.156</v>
+        <v>-7.374</v>
       </c>
       <c r="AB15" s="0">
-        <v>-0.791</v>
+        <v>-7.394</v>
       </c>
       <c r="AC15" s="0">
-        <v>5.18</v>
+        <v>7.39</v>
       </c>
       <c r="AD15" s="0">
-        <v>14.69</v>
+        <v>13.75</v>
       </c>
       <c r="AE15" s="0">
-        <v>14.69</v>
+        <v>13.75</v>
       </c>
       <c r="AF15" s="0">
-        <v>-2.02</v>
+        <v>-0.9</v>
       </c>
       <c r="AG15" s="0">
-        <v>4.4</v>
+        <v>3.86</v>
       </c>
       <c r="AH15" s="0">
-        <v>4.4</v>
+        <v>3.86</v>
       </c>
       <c r="AI15" s="0" t="s">
         <v>47</v>
@@ -2806,67 +2806,67 @@
         <v>92</v>
       </c>
       <c r="N16" s="0">
-        <v>275.656</v>
+        <v>275.615</v>
       </c>
       <c r="O16" s="0">
-        <v>96.2</v>
+        <v>89.64</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.38432</v>
+        <v>0.36754</v>
       </c>
       <c r="R16" s="0">
-        <v>0.39424</v>
+        <v>0.39418</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
       </c>
       <c r="T16" s="0">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="U16" s="0">
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="V16" s="0">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="W16" s="0">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="X16" s="0">
-        <v>4.52</v>
+        <v>6</v>
       </c>
       <c r="Y16" s="0">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="Z16" s="0">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AA16" s="0">
-        <v>-2.985</v>
+        <v>-9.6</v>
       </c>
       <c r="AB16" s="0">
-        <v>-2.816</v>
+        <v>-9.647</v>
       </c>
       <c r="AC16" s="0">
-        <v>4.97</v>
+        <v>7.43</v>
       </c>
       <c r="AD16" s="0">
-        <v>14.76</v>
+        <v>13.73</v>
       </c>
       <c r="AE16" s="0">
-        <v>14.76</v>
+        <v>13.73</v>
       </c>
       <c r="AF16" s="0">
-        <v>-2.14</v>
+        <v>-0.89</v>
       </c>
       <c r="AG16" s="0">
-        <v>4.44</v>
+        <v>3.85</v>
       </c>
       <c r="AH16" s="0">
-        <v>4.44</v>
+        <v>3.85</v>
       </c>
       <c r="AI16" s="0" t="s">
         <v>47</v>
@@ -2913,67 +2913,67 @@
         <v>55</v>
       </c>
       <c r="N17" s="0">
-        <v>576.371</v>
+        <v>576.287</v>
       </c>
       <c r="O17" s="0">
-        <v>75.18</v>
+        <v>72.64</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.62799</v>
+        <v>0.62276</v>
       </c>
       <c r="R17" s="0">
-        <v>0.62913</v>
+        <v>0.62904</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
       </c>
       <c r="T17" s="0">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="U17" s="0">
-        <v>-13</v>
+        <v>29</v>
       </c>
       <c r="V17" s="0">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="W17" s="0">
-        <v>-5</v>
+        <v>62</v>
       </c>
       <c r="X17" s="0">
-        <v>6.11</v>
+        <v>6.45</v>
       </c>
       <c r="Y17" s="0">
-        <v>6.54</v>
+        <v>6.77</v>
       </c>
       <c r="Z17" s="0">
-        <v>6.54</v>
+        <v>6.77</v>
       </c>
       <c r="AA17" s="0">
-        <v>-0.661</v>
+        <v>-4.017</v>
       </c>
       <c r="AB17" s="0">
-        <v>0.27</v>
+        <v>-4.277</v>
       </c>
       <c r="AC17" s="0">
-        <v>11.62</v>
+        <v>11.85</v>
       </c>
       <c r="AD17" s="0">
-        <v>15.17</v>
+        <v>14.65</v>
       </c>
       <c r="AE17" s="0">
-        <v>15.17</v>
+        <v>14.65</v>
       </c>
       <c r="AF17" s="0">
-        <v>1.23</v>
+        <v>1.52</v>
       </c>
       <c r="AG17" s="0">
-        <v>4.68</v>
+        <v>4.37</v>
       </c>
       <c r="AH17" s="0">
-        <v>4.68</v>
+        <v>4.37</v>
       </c>
       <c r="AI17" s="0" t="s">
         <v>47</v>
@@ -3020,67 +3020,67 @@
         <v>55</v>
       </c>
       <c r="N18" s="0">
-        <v>345.823</v>
+        <v>345.772</v>
       </c>
       <c r="O18" s="0">
-        <v>86</v>
+        <v>84.28</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.43102</v>
+        <v>0.43353</v>
       </c>
       <c r="R18" s="0">
-        <v>0.42576</v>
+        <v>0.4257</v>
       </c>
       <c r="S18" s="0">
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="U18" s="0">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="V18" s="0">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="W18" s="0">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="X18" s="0">
-        <v>5.62</v>
+        <v>5.87</v>
       </c>
       <c r="Y18" s="0">
-        <v>6.6</v>
+        <v>6.73</v>
       </c>
       <c r="Z18" s="0">
-        <v>6.6</v>
+        <v>6.73</v>
       </c>
       <c r="AA18" s="0">
-        <v>0.75</v>
+        <v>-1.265</v>
       </c>
       <c r="AB18" s="0">
-        <v>1.523</v>
+        <v>-1.419</v>
       </c>
       <c r="AC18" s="0">
-        <v>8.93</v>
+        <v>9.26</v>
       </c>
       <c r="AD18" s="0">
-        <v>15.04</v>
+        <v>14.73</v>
       </c>
       <c r="AE18" s="0">
-        <v>15.04</v>
+        <v>14.73</v>
       </c>
       <c r="AF18" s="0">
-        <v>-0.47</v>
+        <v>-0.12</v>
       </c>
       <c r="AG18" s="0">
-        <v>4.6</v>
+        <v>4.41</v>
       </c>
       <c r="AH18" s="0">
-        <v>4.6</v>
+        <v>4.41</v>
       </c>
       <c r="AI18" s="0" t="s">
         <v>47</v>
@@ -3127,61 +3127,61 @@
         <v>55</v>
       </c>
       <c r="N19" s="0">
-        <v>864.557</v>
+        <v>864.43</v>
       </c>
       <c r="O19" s="0">
-        <v>99</v>
+        <v>95.28</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1.24044</v>
+        <v>1.22528</v>
       </c>
       <c r="R19" s="0">
-        <v>1.23349</v>
+        <v>1.23331</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="U19" s="0">
-        <v>-32</v>
+        <v>42</v>
       </c>
       <c r="V19" s="0">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="W19" s="0">
-        <v>-24</v>
+        <v>33</v>
       </c>
       <c r="X19" s="0">
-        <v>7.36</v>
+        <v>8.25</v>
       </c>
       <c r="Y19" s="0">
-        <v>6.6</v>
+        <v>7.37</v>
       </c>
       <c r="Z19" s="0">
-        <v>6.6</v>
+        <v>7.37</v>
       </c>
       <c r="AA19" s="0">
-        <v>0.081</v>
+        <v>-3.68</v>
       </c>
       <c r="AB19" s="0">
-        <v>0.6</v>
+        <v>-3.576</v>
       </c>
       <c r="AC19" s="0">
+        <v>4.89</v>
+      </c>
+      <c r="AD19" s="0">
         <v>4.99</v>
       </c>
-      <c r="AD19" s="0">
-        <v>5.03</v>
-      </c>
       <c r="AE19" s="0">
-        <v>5.03</v>
+        <v>4.99</v>
       </c>
       <c r="AF19" s="0">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AG19" s="0">
         <v>0.32</v>
@@ -3234,49 +3234,49 @@
         <v>55</v>
       </c>
       <c r="N20" s="0">
-        <v>601.431</v>
+        <v>601.343</v>
       </c>
       <c r="O20" s="0">
-        <v>100.72</v>
+        <v>100.04</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.87791</v>
+        <v>0.89495</v>
       </c>
       <c r="R20" s="0">
-        <v>0.87474</v>
+        <v>0.87461</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
       </c>
       <c r="T20" s="0">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="U20" s="0">
-        <v>-56</v>
+        <v>-25</v>
       </c>
       <c r="V20" s="0">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="W20" s="0">
-        <v>-77</v>
+        <v>-23</v>
       </c>
       <c r="X20" s="0">
-        <v>5.39</v>
+        <v>5.66</v>
       </c>
       <c r="Y20" s="0">
-        <v>6.08</v>
+        <v>6.41</v>
       </c>
       <c r="Z20" s="0">
-        <v>6.12</v>
+        <v>6.42</v>
       </c>
       <c r="AA20" s="0">
-        <v>-0.119</v>
+        <v>-0.793</v>
       </c>
       <c r="AB20" s="0">
-        <v>0.091</v>
+        <v>-0.664</v>
       </c>
       <c r="AC20" s="0">
         <v>2.13</v>
@@ -3288,7 +3288,7 @@
         <v>2.26</v>
       </c>
       <c r="AF20" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AG20" s="0">
         <v>0.06</v>
@@ -3341,49 +3341,49 @@
         <v>55</v>
       </c>
       <c r="N21" s="0">
-        <v>501.192</v>
+        <v>501.119</v>
       </c>
       <c r="O21" s="0">
-        <v>105.04</v>
+        <v>105.4</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.76297</v>
+        <v>0.78575</v>
       </c>
       <c r="R21" s="0">
-        <v>0.75266</v>
+        <v>0.75255</v>
       </c>
       <c r="S21" s="0">
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U21" s="0">
-        <v>-72</v>
+        <v>-76</v>
       </c>
       <c r="V21" s="0">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W21" s="0">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="X21" s="0">
-        <v>6.56</v>
+        <v>6.48</v>
       </c>
       <c r="Y21" s="0">
-        <v>6.57</v>
+        <v>6.48</v>
       </c>
       <c r="Z21" s="0">
-        <v>6.57</v>
+        <v>6.48</v>
       </c>
       <c r="AA21" s="0">
-        <v>0.884</v>
+        <v>1.229</v>
       </c>
       <c r="AB21" s="0">
-        <v>1.1</v>
+        <v>1.307</v>
       </c>
       <c r="AC21" s="0">
         <v>3.88</v>
@@ -3448,67 +3448,67 @@
         <v>63</v>
       </c>
       <c r="N22" s="0">
-        <v>551.311</v>
+        <v>551.231</v>
       </c>
       <c r="O22" s="0">
-        <v>87.04</v>
+        <v>86.78</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.69545</v>
+        <v>0.71163</v>
       </c>
       <c r="R22" s="0">
-        <v>0.69593</v>
+        <v>0.69582</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="U22" s="0">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="V22" s="0">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="W22" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X22" s="0">
-        <v>5.45</v>
+        <v>5.47</v>
       </c>
       <c r="Y22" s="0">
-        <v>6.35</v>
+        <v>6.37</v>
       </c>
       <c r="Z22" s="0">
-        <v>6.35</v>
+        <v>6.37</v>
       </c>
       <c r="AA22" s="0">
-        <v>-0.548</v>
+        <v>-0.846</v>
       </c>
       <c r="AB22" s="0">
-        <v>0.188</v>
+        <v>-0.979</v>
       </c>
       <c r="AC22" s="0">
-        <v>8.9</v>
+        <v>8.88</v>
       </c>
       <c r="AD22" s="0">
-        <v>15.66</v>
+        <v>15.61</v>
       </c>
       <c r="AE22" s="0">
-        <v>15.66</v>
+        <v>15.61</v>
       </c>
       <c r="AF22" s="0">
-        <v>-0.55</v>
+        <v>-0.54</v>
       </c>
       <c r="AG22" s="0">
-        <v>4.97</v>
+        <v>4.94</v>
       </c>
       <c r="AH22" s="0">
-        <v>4.97</v>
+        <v>4.94</v>
       </c>
       <c r="AI22" s="0" t="s">
         <v>47</v>
@@ -3558,13 +3558,13 @@
         <v>911</v>
       </c>
       <c r="O23" s="0">
-        <v>73.08</v>
+        <v>70.88</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.96486</v>
+        <v>0.96061</v>
       </c>
       <c r="R23" s="0">
         <v>0.96654</v>
@@ -3573,49 +3573,49 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="U23" s="0">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="V23" s="0">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="W23" s="0">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="X23" s="0">
-        <v>5.29</v>
+        <v>5.56</v>
       </c>
       <c r="Y23" s="0">
-        <v>5.74</v>
+        <v>5.92</v>
       </c>
       <c r="Z23" s="0">
-        <v>5.74</v>
+        <v>5.92</v>
       </c>
       <c r="AA23" s="0">
-        <v>-0.653</v>
+        <v>-3.643</v>
       </c>
       <c r="AB23" s="0">
-        <v>0.367</v>
+        <v>-3.958</v>
       </c>
       <c r="AC23" s="0">
-        <v>12.88</v>
+        <v>13.12</v>
       </c>
       <c r="AD23" s="0">
-        <v>17.15</v>
+        <v>16.62</v>
       </c>
       <c r="AE23" s="0">
-        <v>17.15</v>
+        <v>16.62</v>
       </c>
       <c r="AF23" s="0">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AG23" s="0">
-        <v>6.02</v>
+        <v>5.66</v>
       </c>
       <c r="AH23" s="0">
-        <v>6.02</v>
+        <v>5.66</v>
       </c>
       <c r="AI23" s="0" t="s">
         <v>47</v>
@@ -3665,13 +3665,13 @@
         <v>1296.975</v>
       </c>
       <c r="O24" s="0">
-        <v>73.84</v>
+        <v>71.68</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>1.38794</v>
+        <v>1.38303</v>
       </c>
       <c r="R24" s="0">
         <v>1.3925</v>
@@ -3680,49 +3680,49 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="U24" s="0">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="V24" s="0">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="W24" s="0">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="X24" s="0">
-        <v>5.38</v>
+        <v>5.65</v>
       </c>
       <c r="Y24" s="0">
-        <v>5.84</v>
+        <v>6.02</v>
       </c>
       <c r="Z24" s="0">
-        <v>5.84</v>
+        <v>6.02</v>
       </c>
       <c r="AA24" s="0">
-        <v>-0.806</v>
+        <v>-3.708</v>
       </c>
       <c r="AB24" s="0">
-        <v>0.194</v>
+        <v>-4.009</v>
       </c>
       <c r="AC24" s="0">
-        <v>12.65</v>
+        <v>12.84</v>
       </c>
       <c r="AD24" s="0">
-        <v>16.89</v>
+        <v>16.38</v>
       </c>
       <c r="AE24" s="0">
-        <v>16.89</v>
+        <v>16.38</v>
       </c>
       <c r="AF24" s="0">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="AG24" s="0">
-        <v>5.83</v>
+        <v>5.49</v>
       </c>
       <c r="AH24" s="0">
-        <v>5.83</v>
+        <v>5.49</v>
       </c>
       <c r="AI24" s="0" t="s">
         <v>47</v>
@@ -3772,13 +3772,13 @@
         <v>1094.5</v>
       </c>
       <c r="O25" s="0">
-        <v>77.04</v>
+        <v>74.74</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>1.22203</v>
+        <v>1.21695</v>
       </c>
       <c r="R25" s="0">
         <v>1.22374</v>
@@ -3787,49 +3787,49 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="U25" s="0">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="V25" s="0">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="X25" s="0">
-        <v>5.19</v>
+        <v>5.47</v>
       </c>
       <c r="Y25" s="0">
-        <v>5.77</v>
+        <v>5.95</v>
       </c>
       <c r="Z25" s="0">
-        <v>5.77</v>
+        <v>5.95</v>
       </c>
       <c r="AA25" s="0">
-        <v>-0.619</v>
+        <v>-3.586</v>
       </c>
       <c r="AB25" s="0">
-        <v>0.317</v>
+        <v>-3.852</v>
       </c>
       <c r="AC25" s="0">
-        <v>12</v>
+        <v>12.27</v>
       </c>
       <c r="AD25" s="0">
-        <v>17.05</v>
+        <v>16.52</v>
       </c>
       <c r="AE25" s="0">
-        <v>17.05</v>
+        <v>16.52</v>
       </c>
       <c r="AF25" s="0">
-        <v>0.83</v>
+        <v>1.44</v>
       </c>
       <c r="AG25" s="0">
-        <v>5.95</v>
+        <v>5.59</v>
       </c>
       <c r="AH25" s="0">
-        <v>5.95</v>
+        <v>5.59</v>
       </c>
       <c r="AI25" s="0" t="s">
         <v>47</v>
@@ -3879,64 +3879,64 @@
         <v>686.575</v>
       </c>
       <c r="O26" s="0">
-        <v>82.16</v>
+        <v>80.08</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.81752</v>
+        <v>0.81793</v>
       </c>
       <c r="R26" s="0">
-        <v>0.81835</v>
+        <v>0.81834</v>
       </c>
       <c r="S26" s="0">
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="U26" s="0">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="V26" s="0">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="W26" s="0">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="X26" s="0">
-        <v>5.06</v>
+        <v>5.33</v>
       </c>
       <c r="Y26" s="0">
-        <v>5.86</v>
+        <v>6.02</v>
       </c>
       <c r="Z26" s="0">
-        <v>5.86</v>
+        <v>6.02</v>
       </c>
       <c r="AA26" s="0">
-        <v>-0.581</v>
+        <v>-3.098</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.32</v>
+        <v>-3.318</v>
       </c>
       <c r="AC26" s="0">
-        <v>10.99</v>
+        <v>11.26</v>
       </c>
       <c r="AD26" s="0">
-        <v>16.81</v>
+        <v>16.37</v>
       </c>
       <c r="AE26" s="0">
-        <v>16.81</v>
+        <v>16.37</v>
       </c>
       <c r="AF26" s="0">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="AG26" s="0">
-        <v>5.77</v>
+        <v>5.48</v>
       </c>
       <c r="AH26" s="0">
-        <v>5.77</v>
+        <v>5.48</v>
       </c>
       <c r="AI26" s="0" t="s">
         <v>47</v>
@@ -3986,13 +3986,13 @@
         <v>1305</v>
       </c>
       <c r="O27" s="0">
-        <v>86.4</v>
+        <v>83.52</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>1.63408</v>
+        <v>1.62145</v>
       </c>
       <c r="R27" s="0">
         <v>1.6443</v>
@@ -4001,49 +4001,49 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="U27" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="V27" s="0">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="W27" s="0">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="X27" s="0">
-        <v>4.7</v>
+        <v>5.13</v>
       </c>
       <c r="Y27" s="0">
-        <v>5.84</v>
+        <v>6.05</v>
       </c>
       <c r="Z27" s="0">
-        <v>5.84</v>
+        <v>6.05</v>
       </c>
       <c r="AA27" s="0">
-        <v>-1.099</v>
+        <v>-4.396</v>
       </c>
       <c r="AB27" s="0">
-        <v>-0.342</v>
+        <v>-4.534</v>
       </c>
       <c r="AC27" s="0">
-        <v>9.31</v>
+        <v>9.95</v>
       </c>
       <c r="AD27" s="0">
-        <v>16.96</v>
+        <v>16.38</v>
       </c>
       <c r="AE27" s="0">
-        <v>16.96</v>
+        <v>16.38</v>
       </c>
       <c r="AF27" s="0">
-        <v>-0.74</v>
+        <v>-0.05</v>
       </c>
       <c r="AG27" s="0">
-        <v>5.85</v>
+        <v>5.46</v>
       </c>
       <c r="AH27" s="0">
-        <v>5.85</v>
+        <v>5.46</v>
       </c>
       <c r="AI27" s="0" t="s">
         <v>47</v>
@@ -4093,13 +4093,13 @@
         <v>1393.5</v>
       </c>
       <c r="O28" s="0">
-        <v>92.04</v>
+        <v>88.84</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>1.8588</v>
+        <v>1.8417</v>
       </c>
       <c r="R28" s="0">
         <v>1.86756</v>
@@ -4108,49 +4108,49 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="U28" s="0">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="V28" s="0">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="W28" s="0">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="X28" s="0">
-        <v>4.17</v>
+        <v>4.74</v>
       </c>
       <c r="Y28" s="0">
-        <v>5.89</v>
+        <v>6.1</v>
       </c>
       <c r="Z28" s="0">
-        <v>5.89</v>
+        <v>6.1</v>
       </c>
       <c r="AA28" s="0">
-        <v>-0.947</v>
+        <v>-4.391</v>
       </c>
       <c r="AB28" s="0">
-        <v>-0.359</v>
+        <v>-4.451</v>
       </c>
       <c r="AC28" s="0">
-        <v>7.26</v>
+        <v>8.18</v>
       </c>
       <c r="AD28" s="0">
-        <v>16.84</v>
+        <v>16.25</v>
       </c>
       <c r="AE28" s="0">
-        <v>16.84</v>
+        <v>16.25</v>
       </c>
       <c r="AF28" s="0">
-        <v>-1.41</v>
+        <v>-0.9</v>
       </c>
       <c r="AG28" s="0">
-        <v>5.76</v>
+        <v>5.37</v>
       </c>
       <c r="AH28" s="0">
-        <v>5.76</v>
+        <v>5.37</v>
       </c>
       <c r="AI28" s="0" t="s">
         <v>47</v>
@@ -4200,13 +4200,13 @@
         <v>850</v>
       </c>
       <c r="O29" s="0">
-        <v>99.56</v>
+        <v>97.52</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>1.22646</v>
+        <v>1.23315</v>
       </c>
       <c r="R29" s="0">
         <v>1.22498</v>
@@ -4215,49 +4215,49 @@
         <v>0</v>
       </c>
       <c r="T29" s="0">
-        <v>-91</v>
+        <v>-20</v>
       </c>
       <c r="U29" s="0">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="V29" s="0">
-        <v>-40</v>
+        <v>20</v>
       </c>
       <c r="W29" s="0">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="X29" s="0">
-        <v>2.96</v>
+        <v>3.61</v>
       </c>
       <c r="Y29" s="0">
-        <v>5.92</v>
+        <v>6.05</v>
       </c>
       <c r="Z29" s="0">
-        <v>5.92</v>
+        <v>6.05</v>
       </c>
       <c r="AA29" s="0">
-        <v>-0.36</v>
+        <v>-2.402</v>
       </c>
       <c r="AB29" s="0">
-        <v>-0.138</v>
+        <v>-2.43</v>
       </c>
       <c r="AC29" s="0">
-        <v>3.37</v>
+        <v>4.62</v>
       </c>
       <c r="AD29" s="0">
-        <v>16.82</v>
+        <v>16.48</v>
       </c>
       <c r="AE29" s="0">
-        <v>16.82</v>
+        <v>16.48</v>
       </c>
       <c r="AF29" s="0">
-        <v>-2.4</v>
+        <v>-2.16</v>
       </c>
       <c r="AG29" s="0">
-        <v>5.72</v>
+        <v>5.49</v>
       </c>
       <c r="AH29" s="0">
-        <v>5.72</v>
+        <v>5.49</v>
       </c>
       <c r="AI29" s="0" t="s">
         <v>47</v>
@@ -4307,13 +4307,13 @@
         <v>1350</v>
       </c>
       <c r="O30" s="0">
-        <v>99.92</v>
+        <v>99.04</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
       </c>
       <c r="Q30" s="0">
-        <v>1.95494</v>
+        <v>1.98906</v>
       </c>
       <c r="R30" s="0">
         <v>1.9588</v>
@@ -4322,49 +4322,49 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>-112</v>
+        <v>-73</v>
       </c>
       <c r="U30" s="0">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="V30" s="0">
-        <v>-60</v>
+        <v>-27</v>
       </c>
       <c r="W30" s="0">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="X30" s="0">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="Y30" s="0">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="Z30" s="0">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="AA30" s="0">
-        <v>-0.676</v>
+        <v>-1.551</v>
       </c>
       <c r="AB30" s="0">
-        <v>-0.611</v>
+        <v>-1.621</v>
       </c>
       <c r="AC30" s="0">
-        <v>2.51</v>
+        <v>3.26</v>
       </c>
       <c r="AD30" s="0">
-        <v>16.16</v>
+        <v>16.01</v>
       </c>
       <c r="AE30" s="0">
-        <v>16.16</v>
+        <v>16.01</v>
       </c>
       <c r="AF30" s="0">
-        <v>-2.88</v>
+        <v>-2.52</v>
       </c>
       <c r="AG30" s="0">
-        <v>5.34</v>
+        <v>5.25</v>
       </c>
       <c r="AH30" s="0">
-        <v>5.34</v>
+        <v>5.25</v>
       </c>
       <c r="AI30" s="0" t="s">
         <v>47</v>
@@ -4411,67 +4411,67 @@
         <v>55</v>
       </c>
       <c r="N31" s="0">
-        <v>350.835</v>
+        <v>350.783</v>
       </c>
       <c r="O31" s="0">
-        <v>71.16</v>
+        <v>65.56</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>0.36182</v>
+        <v>0.34212</v>
       </c>
       <c r="R31" s="0">
-        <v>0.36696</v>
+        <v>0.36691</v>
       </c>
       <c r="S31" s="0">
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="U31" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V31" s="0">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="W31" s="0">
-        <v>-2</v>
+        <v>29</v>
       </c>
       <c r="X31" s="0">
-        <v>6.26</v>
+        <v>6.99</v>
       </c>
       <c r="Y31" s="0">
-        <v>6.56</v>
+        <v>7.13</v>
       </c>
       <c r="Z31" s="0">
-        <v>6.56</v>
+        <v>7.13</v>
       </c>
       <c r="AA31" s="0">
-        <v>-1.875</v>
+        <v>-8.003</v>
       </c>
       <c r="AB31" s="0">
-        <v>-0.907</v>
+        <v>-8.296</v>
       </c>
       <c r="AC31" s="0">
-        <v>12.38</v>
+        <v>12.59</v>
       </c>
       <c r="AD31" s="0">
-        <v>15.11</v>
+        <v>13.9</v>
       </c>
       <c r="AE31" s="0">
-        <v>15.11</v>
+        <v>13.9</v>
       </c>
       <c r="AF31" s="0">
-        <v>1.53</v>
+        <v>2.67</v>
       </c>
       <c r="AG31" s="0">
-        <v>4.64</v>
+        <v>3.94</v>
       </c>
       <c r="AH31" s="0">
-        <v>4.64</v>
+        <v>3.94</v>
       </c>
       <c r="AI31" s="0" t="s">
         <v>47</v>
@@ -4518,67 +4518,67 @@
         <v>55</v>
       </c>
       <c r="N32" s="0">
-        <v>576.371</v>
+        <v>576.287</v>
       </c>
       <c r="O32" s="0">
-        <v>80.92</v>
+        <v>74.36</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.67594</v>
+        <v>0.6375</v>
       </c>
       <c r="R32" s="0">
-        <v>0.68167</v>
+        <v>0.68157</v>
       </c>
       <c r="S32" s="0">
         <v>0</v>
       </c>
       <c r="T32" s="0">
-        <v>207</v>
+        <v>307</v>
       </c>
       <c r="U32" s="0">
-        <v>-7</v>
+        <v>93</v>
       </c>
       <c r="V32" s="0">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="W32" s="0">
-        <v>-2</v>
+        <v>104</v>
       </c>
       <c r="X32" s="0">
-        <v>6.06</v>
+        <v>6.99</v>
       </c>
       <c r="Y32" s="0">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="Z32" s="0">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AA32" s="0">
-        <v>-1.317</v>
+        <v>-7.678</v>
       </c>
       <c r="AB32" s="0">
-        <v>-0.48</v>
+        <v>-7.875</v>
       </c>
       <c r="AC32" s="0">
-        <v>10.31</v>
+        <v>11.07</v>
       </c>
       <c r="AD32" s="0">
-        <v>14.78</v>
+        <v>13.56</v>
       </c>
       <c r="AE32" s="0">
-        <v>14.78</v>
+        <v>13.56</v>
       </c>
       <c r="AF32" s="0">
-        <v>0.39</v>
+        <v>1.27</v>
       </c>
       <c r="AG32" s="0">
-        <v>4.44</v>
+        <v>3.75</v>
       </c>
       <c r="AH32" s="0">
-        <v>4.44</v>
+        <v>3.75</v>
       </c>
       <c r="AI32" s="0" t="s">
         <v>47</v>
@@ -4625,67 +4625,67 @@
         <v>55</v>
       </c>
       <c r="N33" s="0">
-        <v>426.013</v>
+        <v>425.951</v>
       </c>
       <c r="O33" s="0">
-        <v>100.6</v>
+        <v>96.6</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.62111</v>
+        <v>0.61212</v>
       </c>
       <c r="R33" s="0">
-        <v>0.62427</v>
+        <v>0.62418</v>
       </c>
       <c r="S33" s="0">
         <v>0</v>
       </c>
       <c r="T33" s="0">
-        <v>-78</v>
+        <v>70</v>
       </c>
       <c r="U33" s="0">
-        <v>-23</v>
+        <v>125</v>
       </c>
       <c r="V33" s="0">
-        <v>-48</v>
+        <v>92</v>
       </c>
       <c r="W33" s="0">
-        <v>-21</v>
+        <v>119</v>
       </c>
       <c r="X33" s="0">
-        <v>3.1</v>
+        <v>4.55</v>
       </c>
       <c r="Y33" s="0">
-        <v>6.13</v>
+        <v>6.9</v>
       </c>
       <c r="Z33" s="0">
-        <v>6.62</v>
+        <v>6.9</v>
       </c>
       <c r="AA33" s="0">
-        <v>-0.984</v>
+        <v>-3.297</v>
       </c>
       <c r="AB33" s="0">
-        <v>-0.738</v>
+        <v>-3.282</v>
       </c>
       <c r="AC33" s="0">
-        <v>2.89</v>
+        <v>4.71</v>
       </c>
       <c r="AD33" s="0">
-        <v>0.93</v>
+        <v>14.36</v>
       </c>
       <c r="AE33" s="0">
-        <v>14.96</v>
+        <v>14.36</v>
       </c>
       <c r="AF33" s="0">
-        <v>-1.47</v>
+        <v>-1.64</v>
       </c>
       <c r="AG33" s="0">
-        <v>0.02</v>
+        <v>4.2</v>
       </c>
       <c r="AH33" s="0">
-        <v>4.56</v>
+        <v>4.2</v>
       </c>
       <c r="AI33" s="0" t="s">
         <v>47</v>
@@ -4732,67 +4732,67 @@
         <v>55</v>
       </c>
       <c r="N34" s="0">
-        <v>403.46</v>
+        <v>403.401</v>
       </c>
       <c r="O34" s="0">
-        <v>101.08</v>
+        <v>96.4</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.59104</v>
+        <v>0.57852</v>
       </c>
       <c r="R34" s="0">
-        <v>0.59006</v>
+        <v>0.58997</v>
       </c>
       <c r="S34" s="0">
         <v>0</v>
       </c>
       <c r="T34" s="0">
-        <v>-5</v>
+        <v>117</v>
       </c>
       <c r="U34" s="0">
-        <v>-37</v>
+        <v>85</v>
       </c>
       <c r="V34" s="0">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="W34" s="0">
-        <v>-30</v>
+        <v>78</v>
       </c>
       <c r="X34" s="0">
-        <v>3.86</v>
+        <v>5.03</v>
       </c>
       <c r="Y34" s="0">
-        <v>6.33</v>
+        <v>7.07</v>
       </c>
       <c r="Z34" s="0">
-        <v>6.74</v>
+        <v>7.07</v>
       </c>
       <c r="AA34" s="0">
-        <v>-0.316</v>
+        <v>-3.267</v>
       </c>
       <c r="AB34" s="0">
-        <v>0.135</v>
+        <v>-3.231</v>
       </c>
       <c r="AC34" s="0">
-        <v>4.66</v>
+        <v>5.84</v>
       </c>
       <c r="AD34" s="0">
-        <v>2.03</v>
+        <v>14</v>
       </c>
       <c r="AE34" s="0">
-        <v>14.7</v>
+        <v>14</v>
       </c>
       <c r="AF34" s="0">
-        <v>-1.13</v>
+        <v>-1.1</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.06</v>
+        <v>3.99</v>
       </c>
       <c r="AH34" s="0">
-        <v>4.4</v>
+        <v>3.99</v>
       </c>
       <c r="AI34" s="0" t="s">
         <v>47</v>
@@ -4839,49 +4839,49 @@
         <v>115</v>
       </c>
       <c r="N35" s="0">
-        <v>1498.565</v>
+        <v>1498.345</v>
       </c>
       <c r="O35" s="0">
-        <v>100.72</v>
+        <v>100.63</v>
       </c>
       <c r="P35" s="0">
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>2.18746</v>
+        <v>2.24299</v>
       </c>
       <c r="R35" s="0">
-        <v>2.17436</v>
+        <v>2.17404</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="U35" s="0">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V35" s="0">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="W35" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X35" s="0">
-        <v>7.12</v>
+        <v>7.29</v>
       </c>
       <c r="Y35" s="0">
-        <v>7.19</v>
+        <v>7.35</v>
       </c>
       <c r="Z35" s="0">
-        <v>7.19</v>
+        <v>7.35</v>
       </c>
       <c r="AA35" s="0">
-        <v>0.119</v>
+        <v>0.026</v>
       </c>
       <c r="AB35" s="0">
-        <v>0.13</v>
+        <v>-0.001</v>
       </c>
       <c r="AC35" s="0">
         <v>0.59</v>
@@ -4946,49 +4946,49 @@
         <v>115</v>
       </c>
       <c r="N36" s="0">
-        <v>952.265</v>
+        <v>952.126</v>
       </c>
       <c r="O36" s="0">
-        <v>101.92</v>
+        <v>101.8</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>1.40658</v>
+        <v>1.44193</v>
       </c>
       <c r="R36" s="0">
-        <v>1.39763</v>
+        <v>1.39743</v>
       </c>
       <c r="S36" s="0">
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>-192</v>
+        <v>-180</v>
       </c>
       <c r="U36" s="0">
-        <v>-291</v>
+        <v>-279</v>
       </c>
       <c r="V36" s="0">
-        <v>-663</v>
+        <v>-628</v>
       </c>
       <c r="W36" s="0">
-        <v>-783</v>
+        <v>-748</v>
       </c>
       <c r="X36" s="0">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="Y36" s="0">
-        <v>3.27</v>
+        <v>3.51</v>
       </c>
       <c r="Z36" s="0">
-        <v>3.27</v>
+        <v>3.51</v>
       </c>
       <c r="AA36" s="0">
-        <v>0.157</v>
+        <v>0.039</v>
       </c>
       <c r="AB36" s="0">
-        <v>0.159</v>
+        <v>-0.005</v>
       </c>
       <c r="AC36" s="0">
         <v>0.48</v>
@@ -5032,7 +5032,7 @@
         <v>109939</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>41</v>
@@ -5053,67 +5053,67 @@
         <v>115</v>
       </c>
       <c r="N37" s="0">
-        <v>451.073</v>
+        <v>451.007</v>
       </c>
       <c r="O37" s="0">
-        <v>83.92</v>
+        <v>81.56</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
       </c>
       <c r="Q37" s="0">
-        <v>0.54861</v>
+        <v>0.54722</v>
       </c>
       <c r="R37" s="0">
-        <v>0.54779</v>
+        <v>0.54771</v>
       </c>
       <c r="S37" s="0">
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="U37" s="0">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="V37" s="0">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="W37" s="0">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="X37" s="0">
-        <v>5.26</v>
+        <v>5.59</v>
       </c>
       <c r="Y37" s="0">
-        <v>6</v>
+        <v>6.17</v>
       </c>
       <c r="Z37" s="0">
-        <v>6</v>
+        <v>6.17</v>
       </c>
       <c r="AA37" s="0">
-        <v>-0.333</v>
+        <v>-3.135</v>
       </c>
       <c r="AB37" s="0">
-        <v>0.494</v>
+        <v>-3.32</v>
       </c>
       <c r="AC37" s="0">
-        <v>10.16</v>
+        <v>10.57</v>
       </c>
       <c r="AD37" s="0">
-        <v>16.57</v>
+        <v>16.09</v>
       </c>
       <c r="AE37" s="0">
-        <v>16.57</v>
+        <v>16.09</v>
       </c>
       <c r="AF37" s="0">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AG37" s="0">
-        <v>5.56</v>
+        <v>5.25</v>
       </c>
       <c r="AH37" s="0">
-        <v>5.56</v>
+        <v>5.25</v>
       </c>
       <c r="AI37" s="0" t="s">
         <v>47</v>
@@ -5139,7 +5139,7 @@
         <v>45388</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>41</v>
@@ -5160,61 +5160,61 @@
         <v>115</v>
       </c>
       <c r="N38" s="0">
-        <v>300.715</v>
+        <v>300.671</v>
       </c>
       <c r="O38" s="0">
-        <v>102.08</v>
+        <v>100.12</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>0.44488</v>
+        <v>0.44783</v>
       </c>
       <c r="R38" s="0">
-        <v>0.44066</v>
+        <v>0.4406</v>
       </c>
       <c r="S38" s="0">
         <v>0</v>
       </c>
       <c r="T38" s="0">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="U38" s="0">
-        <v>-8</v>
+        <v>175</v>
       </c>
       <c r="V38" s="0">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="W38" s="0">
-        <v>-7</v>
+        <v>224</v>
       </c>
       <c r="X38" s="0">
-        <v>5.44</v>
+        <v>7.75</v>
       </c>
       <c r="Y38" s="0">
-        <v>4.18</v>
+        <v>6.18</v>
       </c>
       <c r="Z38" s="0">
-        <v>4.18</v>
+        <v>6.18</v>
       </c>
       <c r="AA38" s="0">
-        <v>0.472</v>
+        <v>-1.456</v>
       </c>
       <c r="AB38" s="0">
-        <v>0.515</v>
+        <v>-1.437</v>
       </c>
       <c r="AC38" s="0">
-        <v>0.94</v>
+        <v>0.87</v>
       </c>
       <c r="AD38" s="0">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="AE38" s="0">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="AF38" s="0">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AG38" s="0">
         <v>0.02</v>
@@ -5267,67 +5267,67 @@
         <v>78</v>
       </c>
       <c r="N39" s="0">
-        <v>412.834</v>
+        <v>413.598</v>
       </c>
       <c r="O39" s="0">
-        <v>71.56</v>
+        <v>69.72</v>
       </c>
       <c r="P39" s="0">
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.42815</v>
+        <v>0.42898</v>
       </c>
       <c r="R39" s="0">
-        <v>0.42824</v>
+        <v>0.42903</v>
       </c>
       <c r="S39" s="0">
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="U39" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="V39" s="0">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="W39" s="0">
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="X39" s="0">
-        <v>5.65</v>
+        <v>5.88</v>
       </c>
       <c r="Y39" s="0">
-        <v>6.01</v>
+        <v>6.17</v>
       </c>
       <c r="Z39" s="0">
-        <v>6.01</v>
+        <v>6.17</v>
       </c>
       <c r="AA39" s="0">
-        <v>-0.501</v>
+        <v>-3.059</v>
       </c>
       <c r="AB39" s="0">
-        <v>0.523</v>
+        <v>-3.379</v>
       </c>
       <c r="AC39" s="0">
-        <v>12.91</v>
+        <v>13.11</v>
       </c>
       <c r="AD39" s="0">
-        <v>16.43</v>
+        <v>16</v>
       </c>
       <c r="AE39" s="0">
-        <v>16.43</v>
+        <v>16</v>
       </c>
       <c r="AF39" s="0">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AG39" s="0">
-        <v>5.51</v>
+        <v>5.22</v>
       </c>
       <c r="AH39" s="0">
-        <v>5.51</v>
+        <v>5.22</v>
       </c>
       <c r="AI39" s="0" t="s">
         <v>47</v>
@@ -5374,67 +5374,67 @@
         <v>78</v>
       </c>
       <c r="N40" s="0">
-        <v>655.677</v>
+        <v>656.89</v>
       </c>
       <c r="O40" s="0">
-        <v>72.52</v>
+        <v>71</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>0.68912</v>
+        <v>0.69383</v>
       </c>
       <c r="R40" s="0">
-        <v>0.68884</v>
+        <v>0.69011</v>
       </c>
       <c r="S40" s="0">
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="U40" s="0">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="V40" s="0">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="W40" s="0">
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="X40" s="0">
-        <v>5.73</v>
+        <v>5.92</v>
       </c>
       <c r="Y40" s="0">
-        <v>6.11</v>
+        <v>6.24</v>
       </c>
       <c r="Z40" s="0">
-        <v>6.11</v>
+        <v>6.24</v>
       </c>
       <c r="AA40" s="0">
-        <v>-0.439</v>
+        <v>-2.526</v>
       </c>
       <c r="AB40" s="0">
-        <v>0.566</v>
+        <v>-2.833</v>
       </c>
       <c r="AC40" s="0">
-        <v>12.61</v>
+        <v>12.77</v>
       </c>
       <c r="AD40" s="0">
-        <v>16.17</v>
+        <v>15.82</v>
       </c>
       <c r="AE40" s="0">
-        <v>16.17</v>
+        <v>15.82</v>
       </c>
       <c r="AF40" s="0">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AG40" s="0">
-        <v>5.33</v>
+        <v>5.11</v>
       </c>
       <c r="AH40" s="0">
-        <v>5.33</v>
+        <v>5.11</v>
       </c>
       <c r="AI40" s="0" t="s">
         <v>47</v>
@@ -5481,67 +5481,67 @@
         <v>78</v>
       </c>
       <c r="N41" s="0">
-        <v>1214.217</v>
+        <v>1216.463</v>
       </c>
       <c r="O41" s="0">
-        <v>78.28</v>
+        <v>75.8</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>1.37751</v>
+        <v>1.37174</v>
       </c>
       <c r="R41" s="0">
-        <v>1.38071</v>
+        <v>1.38326</v>
       </c>
       <c r="S41" s="0">
         <v>0</v>
       </c>
       <c r="T41" s="0">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="U41" s="0">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="V41" s="0">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="W41" s="0">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="X41" s="0">
-        <v>5.64</v>
+        <v>5.97</v>
       </c>
       <c r="Y41" s="0">
-        <v>6.21</v>
+        <v>6.42</v>
       </c>
       <c r="Z41" s="0">
-        <v>6.21</v>
+        <v>6.42</v>
       </c>
       <c r="AA41" s="0">
-        <v>-0.71</v>
+        <v>-3.856</v>
       </c>
       <c r="AB41" s="0">
-        <v>0.19</v>
+        <v>-4.094</v>
       </c>
       <c r="AC41" s="0">
-        <v>11.34</v>
+        <v>11.63</v>
       </c>
       <c r="AD41" s="0">
-        <v>15.9</v>
+        <v>15.38</v>
       </c>
       <c r="AE41" s="0">
-        <v>15.9</v>
+        <v>15.38</v>
       </c>
       <c r="AF41" s="0">
-        <v>0.58</v>
+        <v>1.2</v>
       </c>
       <c r="AG41" s="0">
-        <v>5.16</v>
+        <v>4.83</v>
       </c>
       <c r="AH41" s="0">
-        <v>5.16</v>
+        <v>4.83</v>
       </c>
       <c r="AI41" s="0" t="s">
         <v>47</v>
@@ -5588,67 +5588,67 @@
         <v>78</v>
       </c>
       <c r="N42" s="0">
-        <v>1457.06</v>
+        <v>1459.756</v>
       </c>
       <c r="O42" s="0">
-        <v>83.12</v>
+        <v>80.84</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>1.75522</v>
+        <v>1.75546</v>
       </c>
       <c r="R42" s="0">
-        <v>1.76108</v>
+        <v>1.76434</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="U42" s="0">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="V42" s="0">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="W42" s="0">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="X42" s="0">
-        <v>5.26</v>
+        <v>5.57</v>
       </c>
       <c r="Y42" s="0">
-        <v>6.09</v>
+        <v>6.27</v>
       </c>
       <c r="Z42" s="0">
-        <v>6.09</v>
+        <v>6.27</v>
       </c>
       <c r="AA42" s="0">
-        <v>-0.811</v>
+        <v>-3.537</v>
       </c>
       <c r="AB42" s="0">
-        <v>0.023</v>
+        <v>-3.721</v>
       </c>
       <c r="AC42" s="0">
-        <v>10.2</v>
+        <v>10.62</v>
       </c>
       <c r="AD42" s="0">
-        <v>16.21</v>
+        <v>15.76</v>
       </c>
       <c r="AE42" s="0">
-        <v>16.21</v>
+        <v>15.76</v>
       </c>
       <c r="AF42" s="0">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="AG42" s="0">
-        <v>5.36</v>
+        <v>5.07</v>
       </c>
       <c r="AH42" s="0">
-        <v>5.36</v>
+        <v>5.07</v>
       </c>
       <c r="AI42" s="0" t="s">
         <v>47</v>
@@ -5695,67 +5695,67 @@
         <v>55</v>
       </c>
       <c r="N43" s="0">
-        <v>300.715</v>
+        <v>300.671</v>
       </c>
       <c r="O43" s="0">
-        <v>76.12</v>
+        <v>72.16</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>0.33174</v>
+        <v>0.32277</v>
       </c>
       <c r="R43" s="0">
-        <v>0.3305</v>
+        <v>0.33045</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="U43" s="0">
-        <v>-16</v>
+        <v>41</v>
       </c>
       <c r="V43" s="0">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="W43" s="0">
-        <v>-8</v>
+        <v>23</v>
       </c>
       <c r="X43" s="0">
-        <v>5.14</v>
+        <v>5.63</v>
       </c>
       <c r="Y43" s="0">
-        <v>5.7</v>
+        <v>6.02</v>
       </c>
       <c r="Z43" s="0">
-        <v>5.7</v>
+        <v>6.02</v>
       </c>
       <c r="AA43" s="0">
-        <v>-0.105</v>
+        <v>-3.892</v>
       </c>
       <c r="AB43" s="0">
-        <v>0.865</v>
+        <v>-4.183</v>
       </c>
       <c r="AC43" s="0">
-        <v>12.31</v>
+        <v>12.76</v>
       </c>
       <c r="AD43" s="0">
-        <v>17.37</v>
+        <v>16.45</v>
       </c>
       <c r="AE43" s="0">
-        <v>17.37</v>
+        <v>16.45</v>
       </c>
       <c r="AF43" s="0">
-        <v>1.09</v>
+        <v>1.72</v>
       </c>
       <c r="AG43" s="0">
-        <v>6.13</v>
+        <v>5.51</v>
       </c>
       <c r="AH43" s="0">
-        <v>6.13</v>
+        <v>5.51</v>
       </c>
       <c r="AI43" s="0" t="s">
         <v>47</v>
@@ -5802,67 +5802,67 @@
         <v>55</v>
       </c>
       <c r="N44" s="0">
-        <v>801.908</v>
+        <v>801.79</v>
       </c>
       <c r="O44" s="0">
-        <v>87.72</v>
+        <v>83.36</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>1.01946</v>
+        <v>0.99431</v>
       </c>
       <c r="R44" s="0">
-        <v>1.02012</v>
+        <v>1.01997</v>
       </c>
       <c r="S44" s="0">
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="U44" s="0">
-        <v>-17</v>
+        <v>57</v>
       </c>
       <c r="V44" s="0">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="W44" s="0">
-        <v>-10</v>
+        <v>39</v>
       </c>
       <c r="X44" s="0">
-        <v>4.87</v>
+        <v>5.54</v>
       </c>
       <c r="Y44" s="0">
-        <v>6.05</v>
+        <v>6.37</v>
       </c>
       <c r="Z44" s="0">
-        <v>6.05</v>
+        <v>6.37</v>
       </c>
       <c r="AA44" s="0">
-        <v>-0.544</v>
+        <v>-3.999</v>
       </c>
       <c r="AB44" s="0">
-        <v>0.208</v>
+        <v>-4.141</v>
       </c>
       <c r="AC44" s="0">
-        <v>8.9</v>
+        <v>9.87</v>
       </c>
       <c r="AD44" s="0">
-        <v>16.38</v>
+        <v>15.54</v>
       </c>
       <c r="AE44" s="0">
-        <v>16.38</v>
+        <v>15.54</v>
       </c>
       <c r="AF44" s="0">
-        <v>-0.81</v>
+        <v>0.03</v>
       </c>
       <c r="AG44" s="0">
-        <v>5.46</v>
+        <v>4.92</v>
       </c>
       <c r="AH44" s="0">
-        <v>5.46</v>
+        <v>4.92</v>
       </c>
       <c r="AI44" s="0" t="s">
         <v>47</v>
@@ -5909,61 +5909,61 @@
         <v>63</v>
       </c>
       <c r="N45" s="0">
-        <v>400.954</v>
+        <v>400.895</v>
       </c>
       <c r="O45" s="0">
-        <v>94.24</v>
+        <v>93.32</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0.54762</v>
+        <v>0.55656</v>
       </c>
       <c r="R45" s="0">
-        <v>0.54499</v>
+        <v>0.54491</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
       </c>
       <c r="T45" s="0">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="U45" s="0">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="V45" s="0">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="W45" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X45" s="0">
-        <v>8.59</v>
+        <v>8.82</v>
       </c>
       <c r="Y45" s="0">
-        <v>8.56</v>
+        <v>8.79</v>
       </c>
       <c r="Z45" s="0">
-        <v>8.56</v>
+        <v>8.79</v>
       </c>
       <c r="AA45" s="0">
-        <v>0</v>
+        <v>-0.976</v>
       </c>
       <c r="AB45" s="0">
-        <v>0.421</v>
+        <v>-0.852</v>
       </c>
       <c r="AC45" s="0">
-        <v>3.85</v>
+        <v>3.77</v>
       </c>
       <c r="AD45" s="0">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="AE45" s="0">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="AF45" s="0">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AG45" s="0">
         <v>0.24</v>
@@ -6016,67 +6016,67 @@
         <v>115</v>
       </c>
       <c r="N46" s="0">
-        <v>345.823</v>
+        <v>345.772</v>
       </c>
       <c r="O46" s="0">
-        <v>87.8</v>
+        <v>87.16</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>0.44004</v>
+        <v>0.44834</v>
       </c>
       <c r="R46" s="0">
-        <v>0.43893</v>
+        <v>0.43886</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="U46" s="0">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V46" s="0">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="W46" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X46" s="0">
-        <v>5.04</v>
+        <v>5.11</v>
       </c>
       <c r="Y46" s="0">
-        <v>6.19</v>
+        <v>6.23</v>
       </c>
       <c r="Z46" s="0">
-        <v>6.19</v>
+        <v>6.23</v>
       </c>
       <c r="AA46" s="0">
-        <v>-0.227</v>
+        <v>-0.955</v>
       </c>
       <c r="AB46" s="0">
-        <v>0.518</v>
+        <v>-1.08</v>
       </c>
       <c r="AC46" s="0">
-        <v>8.85</v>
+        <v>8.91</v>
       </c>
       <c r="AD46" s="0">
-        <v>16</v>
+        <v>15.88</v>
       </c>
       <c r="AE46" s="0">
-        <v>16</v>
+        <v>15.88</v>
       </c>
       <c r="AF46" s="0">
-        <v>-0.72</v>
+        <v>-0.71</v>
       </c>
       <c r="AG46" s="0">
-        <v>5.21</v>
+        <v>5.14</v>
       </c>
       <c r="AH46" s="0">
-        <v>5.21</v>
+        <v>5.14</v>
       </c>
       <c r="AI46" s="0" t="s">
         <v>47</v>
@@ -6123,67 +6123,67 @@
         <v>115</v>
       </c>
       <c r="N47" s="0">
-        <v>250.596</v>
+        <v>250.559</v>
       </c>
       <c r="O47" s="0">
-        <v>89.48</v>
+        <v>87.88</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0.32497</v>
+        <v>0.32757</v>
       </c>
       <c r="R47" s="0">
-        <v>0.32819</v>
+        <v>0.32814</v>
       </c>
       <c r="S47" s="0">
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="U47" s="0">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="V47" s="0">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="W47" s="0">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="X47" s="0">
-        <v>4.28</v>
+        <v>4.52</v>
       </c>
       <c r="Y47" s="0">
-        <v>5.57</v>
+        <v>5.67</v>
       </c>
       <c r="Z47" s="0">
-        <v>5.57</v>
+        <v>5.67</v>
       </c>
       <c r="AA47" s="0">
-        <v>-1.454</v>
+        <v>-3.216</v>
       </c>
       <c r="AB47" s="0">
-        <v>-0.76</v>
+        <v>-3.327</v>
       </c>
       <c r="AC47" s="0">
-        <v>8.68</v>
+        <v>9.05</v>
       </c>
       <c r="AD47" s="0">
-        <v>17.82</v>
+        <v>17.5</v>
       </c>
       <c r="AE47" s="0">
-        <v>17.82</v>
+        <v>17.5</v>
       </c>
       <c r="AF47" s="0">
-        <v>-0.88</v>
+        <v>-0.89</v>
       </c>
       <c r="AG47" s="0">
-        <v>6.44</v>
+        <v>6.21</v>
       </c>
       <c r="AH47" s="0">
-        <v>6.44</v>
+        <v>6.21</v>
       </c>
       <c r="AI47" s="0" t="s">
         <v>47</v>
@@ -6230,52 +6230,52 @@
         <v>115</v>
       </c>
       <c r="N48" s="0">
-        <v>451.073</v>
+        <v>451.007</v>
       </c>
       <c r="O48" s="0">
-        <v>100.72</v>
+        <v>100.36</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0.65843</v>
+        <v>0.67336</v>
       </c>
       <c r="R48" s="0">
-        <v>0.65449</v>
+        <v>0.65439</v>
       </c>
       <c r="S48" s="0">
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="U48" s="0">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="V48" s="0">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="W48" s="0">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="X48" s="0">
-        <v>7.79</v>
+        <v>8.08</v>
       </c>
       <c r="Y48" s="0">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="Z48" s="0">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AA48" s="0">
-        <v>0.119</v>
+        <v>-0.239</v>
       </c>
       <c r="AB48" s="0">
-        <v>0.138</v>
+        <v>-0.252</v>
       </c>
       <c r="AC48" s="0">
-        <v>0.63</v>
+        <v>0.56</v>
       </c>
       <c r="AD48" s="0">
         <v>0.71</v>
@@ -6284,7 +6284,7 @@
         <v>0.71</v>
       </c>
       <c r="AF48" s="0">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="AG48" s="0">
         <v>0.01</v>
@@ -6337,67 +6337,67 @@
         <v>115</v>
       </c>
       <c r="N49" s="0">
-        <v>751.788</v>
+        <v>751.678</v>
       </c>
       <c r="O49" s="0">
-        <v>67.88</v>
+        <v>64.8</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>0.73958</v>
+        <v>0.72462</v>
       </c>
       <c r="R49" s="0">
-        <v>0.7408</v>
+        <v>0.74069</v>
       </c>
       <c r="S49" s="0">
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="U49" s="0">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="V49" s="0">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="W49" s="0">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="X49" s="0">
-        <v>5.73</v>
+        <v>6.11</v>
       </c>
       <c r="Y49" s="0">
-        <v>6</v>
+        <v>6.29</v>
       </c>
       <c r="Z49" s="0">
-        <v>6</v>
+        <v>6.29</v>
       </c>
       <c r="AA49" s="0">
-        <v>-0.644</v>
+        <v>-5.152</v>
       </c>
       <c r="AB49" s="0">
-        <v>0.4</v>
+        <v>-5.499</v>
       </c>
       <c r="AC49" s="0">
-        <v>13.64</v>
+        <v>13.72</v>
       </c>
       <c r="AD49" s="0">
-        <v>16.39</v>
+        <v>15.62</v>
       </c>
       <c r="AE49" s="0">
-        <v>16.39</v>
+        <v>15.62</v>
       </c>
       <c r="AF49" s="0">
-        <v>1.6</v>
+        <v>3.11</v>
       </c>
       <c r="AG49" s="0">
-        <v>5.51</v>
+        <v>5.01</v>
       </c>
       <c r="AH49" s="0">
-        <v>5.51</v>
+        <v>5.01</v>
       </c>
       <c r="AI49" s="0" t="s">
         <v>47</v>
@@ -6444,67 +6444,67 @@
         <v>115</v>
       </c>
       <c r="N50" s="0">
-        <v>501.192</v>
+        <v>501.119</v>
       </c>
       <c r="O50" s="0">
-        <v>70.04</v>
+        <v>65.8</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>0.50874</v>
+        <v>0.49053</v>
       </c>
       <c r="R50" s="0">
-        <v>0.50775</v>
+        <v>0.50767</v>
       </c>
       <c r="S50" s="0">
         <v>0</v>
       </c>
       <c r="T50" s="0">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="U50" s="0">
-        <v>-2</v>
+        <v>58</v>
       </c>
       <c r="V50" s="0">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="W50" s="0">
-        <v>-2</v>
+        <v>58</v>
       </c>
       <c r="X50" s="0">
-        <v>5.68</v>
+        <v>6.2</v>
       </c>
       <c r="Y50" s="0">
-        <v>5.99</v>
+        <v>6.39</v>
       </c>
       <c r="Z50" s="0">
-        <v>5.99</v>
+        <v>6.39</v>
       </c>
       <c r="AA50" s="0">
-        <v>-0.285</v>
+        <v>-6.321</v>
       </c>
       <c r="AB50" s="0">
-        <v>0.749</v>
+        <v>-6.656</v>
       </c>
       <c r="AC50" s="0">
-        <v>13.23</v>
+        <v>13.45</v>
       </c>
       <c r="AD50" s="0">
-        <v>16.4</v>
+        <v>15.37</v>
       </c>
       <c r="AE50" s="0">
-        <v>16.4</v>
+        <v>15.37</v>
       </c>
       <c r="AF50" s="0">
-        <v>1.5</v>
+        <v>2.73</v>
       </c>
       <c r="AG50" s="0">
-        <v>5.52</v>
+        <v>4.85</v>
       </c>
       <c r="AH50" s="0">
-        <v>5.52</v>
+        <v>4.85</v>
       </c>
       <c r="AI50" s="0" t="s">
         <v>47</v>
@@ -6551,67 +6551,67 @@
         <v>115</v>
       </c>
       <c r="N51" s="0">
-        <v>749.282</v>
+        <v>749.173</v>
       </c>
       <c r="O51" s="0">
-        <v>70.24</v>
+        <v>66.32</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>0.76274</v>
+        <v>0.73914</v>
       </c>
       <c r="R51" s="0">
-        <v>0.76513</v>
+        <v>0.76502</v>
       </c>
       <c r="S51" s="0">
         <v>0</v>
       </c>
       <c r="T51" s="0">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="U51" s="0">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="V51" s="0">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="W51" s="0">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X51" s="0">
-        <v>5.86</v>
+        <v>6.35</v>
       </c>
       <c r="Y51" s="0">
-        <v>6.16</v>
+        <v>6.53</v>
       </c>
       <c r="Z51" s="0">
-        <v>6.16</v>
+        <v>6.53</v>
       </c>
       <c r="AA51" s="0">
-        <v>-0.791</v>
+        <v>-6.328</v>
       </c>
       <c r="AB51" s="0">
-        <v>0.227</v>
+        <v>-6.651</v>
       </c>
       <c r="AC51" s="0">
-        <v>13</v>
+        <v>13.19</v>
       </c>
       <c r="AD51" s="0">
-        <v>15.95</v>
+        <v>15.03</v>
       </c>
       <c r="AE51" s="0">
-        <v>15.95</v>
+        <v>15.03</v>
       </c>
       <c r="AF51" s="0">
-        <v>1.5</v>
+        <v>2.56</v>
       </c>
       <c r="AG51" s="0">
-        <v>5.22</v>
+        <v>4.64</v>
       </c>
       <c r="AH51" s="0">
-        <v>5.22</v>
+        <v>4.64</v>
       </c>
       <c r="AI51" s="0" t="s">
         <v>47</v>
@@ -6658,67 +6658,67 @@
         <v>115</v>
       </c>
       <c r="N52" s="0">
-        <v>741.764</v>
+        <v>741.656</v>
       </c>
       <c r="O52" s="0">
-        <v>73.76</v>
+        <v>68.92</v>
       </c>
       <c r="P52" s="0">
         <v>0</v>
       </c>
       <c r="Q52" s="0">
-        <v>0.79293</v>
+        <v>0.76041</v>
       </c>
       <c r="R52" s="0">
-        <v>0.79426</v>
+        <v>0.79414</v>
       </c>
       <c r="S52" s="0">
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="U52" s="0">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="V52" s="0">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="W52" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="X52" s="0">
-        <v>5.82</v>
+        <v>6.44</v>
       </c>
       <c r="Y52" s="0">
-        <v>6.21</v>
+        <v>6.66</v>
       </c>
       <c r="Z52" s="0">
-        <v>6.21</v>
+        <v>6.66</v>
       </c>
       <c r="AA52" s="0">
-        <v>-0.647</v>
+        <v>-7.166</v>
       </c>
       <c r="AB52" s="0">
-        <v>0.333</v>
+        <v>-7.455</v>
       </c>
       <c r="AC52" s="0">
-        <v>12.27</v>
+        <v>12.66</v>
       </c>
       <c r="AD52" s="0">
-        <v>15.81</v>
+        <v>14.74</v>
       </c>
       <c r="AE52" s="0">
-        <v>15.81</v>
+        <v>14.74</v>
       </c>
       <c r="AF52" s="0">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="AG52" s="0">
-        <v>5.13</v>
+        <v>4.46</v>
       </c>
       <c r="AH52" s="0">
-        <v>5.13</v>
+        <v>4.46</v>
       </c>
       <c r="AI52" s="0" t="s">
         <v>47</v>
@@ -6765,67 +6765,67 @@
         <v>115</v>
       </c>
       <c r="N53" s="0">
-        <v>395.942</v>
+        <v>395.884</v>
       </c>
       <c r="O53" s="0">
-        <v>78.92</v>
+        <v>74.84</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>0.45286</v>
+        <v>0.44076</v>
       </c>
       <c r="R53" s="0">
-        <v>0.45183</v>
+        <v>0.45176</v>
       </c>
       <c r="S53" s="0">
         <v>0</v>
       </c>
       <c r="T53" s="0">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="U53" s="0">
-        <v>-1</v>
+        <v>60</v>
       </c>
       <c r="V53" s="0">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="W53" s="0">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="X53" s="0">
-        <v>5.45</v>
+        <v>5.98</v>
       </c>
       <c r="Y53" s="0">
-        <v>6.06</v>
+        <v>6.4</v>
       </c>
       <c r="Z53" s="0">
-        <v>6.06</v>
+        <v>6.4</v>
       </c>
       <c r="AA53" s="0">
-        <v>-0.253</v>
+        <v>-5.41</v>
       </c>
       <c r="AB53" s="0">
-        <v>0.649</v>
+        <v>-5.65</v>
       </c>
       <c r="AC53" s="0">
-        <v>11.31</v>
+        <v>11.81</v>
       </c>
       <c r="AD53" s="0">
-        <v>16.21</v>
+        <v>15.34</v>
       </c>
       <c r="AE53" s="0">
-        <v>16.21</v>
+        <v>15.34</v>
       </c>
       <c r="AF53" s="0">
-        <v>0.5</v>
+        <v>1.39</v>
       </c>
       <c r="AG53" s="0">
-        <v>5.39</v>
+        <v>4.84</v>
       </c>
       <c r="AH53" s="0">
-        <v>5.39</v>
+        <v>4.84</v>
       </c>
       <c r="AI53" s="0" t="s">
         <v>47</v>
@@ -6872,67 +6872,67 @@
         <v>115</v>
       </c>
       <c r="N54" s="0">
-        <v>300.715</v>
+        <v>300.671</v>
       </c>
       <c r="O54" s="0">
-        <v>92.25</v>
+        <v>86.72</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>0.40203</v>
+        <v>0.38789</v>
       </c>
       <c r="R54" s="0">
-        <v>0.40198</v>
+        <v>0.40192</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="U54" s="0">
-        <v>-10</v>
+        <v>40</v>
       </c>
       <c r="V54" s="0">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="W54" s="0">
-        <v>-6</v>
+        <v>25</v>
       </c>
       <c r="X54" s="0">
-        <v>5.97</v>
+        <v>6.39</v>
       </c>
       <c r="Y54" s="0">
-        <v>6.01</v>
+        <v>6.4</v>
       </c>
       <c r="Z54" s="0">
-        <v>6.01</v>
+        <v>6.4</v>
       </c>
       <c r="AA54" s="0">
-        <v>-0.466</v>
+        <v>-6.431</v>
       </c>
       <c r="AB54" s="0">
-        <v>0.515</v>
+        <v>-6.807</v>
       </c>
       <c r="AC54" s="0">
-        <v>13.04</v>
+        <v>14.95</v>
       </c>
       <c r="AD54" s="0">
-        <v>16.51</v>
+        <v>15.5</v>
       </c>
       <c r="AE54" s="0">
-        <v>16.51</v>
+        <v>15.5</v>
       </c>
       <c r="AF54" s="0">
-        <v>-5.49</v>
+        <v>1.83</v>
       </c>
       <c r="AG54" s="0">
-        <v>5.53</v>
+        <v>4.89</v>
       </c>
       <c r="AH54" s="0">
-        <v>5.53</v>
+        <v>4.89</v>
       </c>
       <c r="AI54" s="0" t="s">
         <v>47</v>
@@ -6979,52 +6979,52 @@
         <v>200</v>
       </c>
       <c r="N55" s="0">
-        <v>1002.384</v>
+        <v>1002.238</v>
       </c>
       <c r="O55" s="0">
-        <v>99.88</v>
+        <v>100.12</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1.45098</v>
+        <v>1.49278</v>
       </c>
       <c r="R55" s="0">
-        <v>1.44344</v>
+        <v>1.44322</v>
       </c>
       <c r="S55" s="0">
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="U55" s="0">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="V55" s="0">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="W55" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="X55" s="0">
-        <v>8.25</v>
+        <v>8.32</v>
       </c>
       <c r="Y55" s="0">
-        <v>14.2</v>
+        <v>11.84</v>
       </c>
       <c r="Z55" s="0">
-        <v>14.2</v>
+        <v>11.84</v>
       </c>
       <c r="AA55" s="0">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
       <c r="AB55" s="0">
-        <v>0.024</v>
+        <v>0.184</v>
       </c>
       <c r="AC55" s="0">
-        <v>-0.22</v>
+        <v>-0.15</v>
       </c>
       <c r="AD55" s="0">
         <v>0.1</v>
@@ -7033,7 +7033,7 @@
         <v>0.1</v>
       </c>
       <c r="AF55" s="0">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="AG55" s="0">
         <v>0</v>
@@ -7086,49 +7086,49 @@
         <v>200</v>
       </c>
       <c r="N56" s="0">
-        <v>701.669</v>
+        <v>701.566</v>
       </c>
       <c r="O56" s="0">
-        <v>100.92</v>
+        <v>100.56</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>1.02626</v>
+        <v>1.04953</v>
       </c>
       <c r="R56" s="0">
-        <v>1.02498</v>
+        <v>1.02483</v>
       </c>
       <c r="S56" s="0">
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="U56" s="0">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="V56" s="0">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="W56" s="0">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="X56" s="0">
-        <v>6.27</v>
+        <v>6.7</v>
       </c>
       <c r="Y56" s="0">
-        <v>6.41</v>
+        <v>6.75</v>
       </c>
       <c r="Z56" s="0">
-        <v>6.41</v>
+        <v>6.75</v>
       </c>
       <c r="AA56" s="0">
-        <v>-0.355</v>
+        <v>-0.711</v>
       </c>
       <c r="AB56" s="0">
-        <v>-0.302</v>
+        <v>-0.681</v>
       </c>
       <c r="AC56" s="0">
         <v>1.03</v>
@@ -7193,67 +7193,67 @@
         <v>115</v>
       </c>
       <c r="N57" s="0">
-        <v>501.192</v>
+        <v>501.119</v>
       </c>
       <c r="O57" s="0">
-        <v>77.84</v>
+        <v>75.8</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0.5654</v>
+        <v>0.56508</v>
       </c>
       <c r="R57" s="0">
-        <v>0.56673</v>
+        <v>0.56665</v>
       </c>
       <c r="S57" s="0">
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="U57" s="0">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="V57" s="0">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="W57" s="0">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="X57" s="0">
-        <v>5.32</v>
+        <v>5.57</v>
       </c>
       <c r="Y57" s="0">
-        <v>5.81</v>
+        <v>5.97</v>
       </c>
       <c r="Z57" s="0">
-        <v>5.81</v>
+        <v>5.97</v>
       </c>
       <c r="AA57" s="0">
-        <v>-0.714</v>
+        <v>-3.316</v>
       </c>
       <c r="AB57" s="0">
-        <v>0.21</v>
+        <v>-3.573</v>
       </c>
       <c r="AC57" s="0">
-        <v>11.83</v>
+        <v>12.04</v>
       </c>
       <c r="AD57" s="0">
-        <v>17.13</v>
+        <v>16.68</v>
       </c>
       <c r="AE57" s="0">
-        <v>17.13</v>
+        <v>16.68</v>
       </c>
       <c r="AF57" s="0">
-        <v>0.69</v>
+        <v>1.51</v>
       </c>
       <c r="AG57" s="0">
-        <v>5.94</v>
+        <v>5.63</v>
       </c>
       <c r="AH57" s="0">
-        <v>5.94</v>
+        <v>5.63</v>
       </c>
       <c r="AI57" s="0" t="s">
         <v>47</v>
@@ -7300,67 +7300,67 @@
         <v>72</v>
       </c>
       <c r="N58" s="0">
-        <v>345.823</v>
+        <v>345.772</v>
       </c>
       <c r="O58" s="0">
-        <v>100.8</v>
+        <v>99.8</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>0.5052</v>
+        <v>0.51336</v>
       </c>
       <c r="R58" s="0">
-        <v>0.50477</v>
+        <v>0.50469</v>
       </c>
       <c r="S58" s="0">
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>-146</v>
+        <v>-102</v>
       </c>
       <c r="U58" s="0">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="V58" s="0">
-        <v>-95</v>
+        <v>-55</v>
       </c>
       <c r="W58" s="0">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X58" s="0">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="Y58" s="0">
-        <v>5.98</v>
+        <v>6.1</v>
       </c>
       <c r="Z58" s="0">
-        <v>6.04</v>
+        <v>6.1</v>
       </c>
       <c r="AA58" s="0">
-        <v>-0.395</v>
+        <v>-1.383</v>
       </c>
       <c r="AB58" s="0">
-        <v>-0.239</v>
+        <v>-1.394</v>
       </c>
       <c r="AC58" s="0">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="AD58" s="0">
-        <v>0.59</v>
+        <v>16.14</v>
       </c>
       <c r="AE58" s="0">
-        <v>16.3</v>
+        <v>16.14</v>
       </c>
       <c r="AF58" s="0">
-        <v>-1.78</v>
+        <v>-1.89</v>
       </c>
       <c r="AG58" s="0">
-        <v>0.01</v>
+        <v>5.33</v>
       </c>
       <c r="AH58" s="0">
-        <v>5.43</v>
+        <v>5.33</v>
       </c>
       <c r="AI58" s="0" t="s">
         <v>47</v>
@@ -7410,13 +7410,13 @@
         <v>2000</v>
       </c>
       <c r="O59" s="0">
-        <v>75.12</v>
+        <v>73.2</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>2.17738</v>
+        <v>2.17793</v>
       </c>
       <c r="R59" s="0">
         <v>2.18077</v>
@@ -7425,49 +7425,49 @@
         <v>0</v>
       </c>
       <c r="T59" s="0">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="U59" s="0">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="V59" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="W59" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X59" s="0">
-        <v>5.12</v>
+        <v>5.36</v>
       </c>
       <c r="Y59" s="0">
-        <v>5.66</v>
+        <v>5.81</v>
       </c>
       <c r="Z59" s="0">
-        <v>5.66</v>
+        <v>5.81</v>
       </c>
       <c r="AA59" s="0">
-        <v>-0.635</v>
+        <v>-3.175</v>
       </c>
       <c r="AB59" s="0">
-        <v>0.351</v>
+        <v>-3.47</v>
       </c>
       <c r="AC59" s="0">
-        <v>12.6</v>
+        <v>12.78</v>
       </c>
       <c r="AD59" s="0">
-        <v>17.48</v>
+        <v>17.02</v>
       </c>
       <c r="AE59" s="0">
-        <v>17.48</v>
+        <v>17.02</v>
       </c>
       <c r="AF59" s="0">
-        <v>1.51</v>
+        <v>1.73</v>
       </c>
       <c r="AG59" s="0">
-        <v>6.22</v>
+        <v>5.91</v>
       </c>
       <c r="AH59" s="0">
-        <v>6.22</v>
+        <v>5.91</v>
       </c>
       <c r="AI59" s="0" t="s">
         <v>47</v>
@@ -7517,13 +7517,13 @@
         <v>1500</v>
       </c>
       <c r="O60" s="0">
-        <v>80.52</v>
+        <v>78.36</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>1.75042</v>
+        <v>1.74859</v>
       </c>
       <c r="R60" s="0">
         <v>1.74981</v>
@@ -7532,49 +7532,49 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="U60" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V60" s="0">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="W60" s="0">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X60" s="0">
-        <v>4.96</v>
+        <v>5.24</v>
       </c>
       <c r="Y60" s="0">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="Z60" s="0">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="AA60" s="0">
-        <v>-0.445</v>
+        <v>-3.116</v>
       </c>
       <c r="AB60" s="0">
-        <v>0.471</v>
+        <v>-3.354</v>
       </c>
       <c r="AC60" s="0">
-        <v>11.35</v>
+        <v>11.64</v>
       </c>
       <c r="AD60" s="0">
-        <v>17.29</v>
+        <v>16.81</v>
       </c>
       <c r="AE60" s="0">
-        <v>17.29</v>
+        <v>16.81</v>
       </c>
       <c r="AF60" s="0">
-        <v>0.37</v>
+        <v>0.64</v>
       </c>
       <c r="AG60" s="0">
-        <v>6.09</v>
+        <v>5.76</v>
       </c>
       <c r="AH60" s="0">
-        <v>6.09</v>
+        <v>5.76</v>
       </c>
       <c r="AI60" s="0" t="s">
         <v>47</v>
@@ -7624,13 +7624,13 @@
         <v>1850</v>
       </c>
       <c r="O61" s="0">
-        <v>81.88</v>
+        <v>79.72</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>2.19532</v>
+        <v>2.19403</v>
       </c>
       <c r="R61" s="0">
         <v>2.19225</v>
@@ -7639,49 +7639,49 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="U61" s="0">
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="V61" s="0">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="W61" s="0">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="X61" s="0">
-        <v>4.89</v>
+        <v>5.17</v>
       </c>
       <c r="Y61" s="0">
-        <v>5.72</v>
+        <v>5.87</v>
       </c>
       <c r="Z61" s="0">
-        <v>5.72</v>
+        <v>5.87</v>
       </c>
       <c r="AA61" s="0">
-        <v>-0.341</v>
+        <v>-2.97</v>
       </c>
       <c r="AB61" s="0">
-        <v>0.562</v>
+        <v>-3.192</v>
       </c>
       <c r="AC61" s="0">
-        <v>11.02</v>
+        <v>11.35</v>
       </c>
       <c r="AD61" s="0">
-        <v>17.29</v>
+        <v>16.83</v>
       </c>
       <c r="AE61" s="0">
-        <v>17.29</v>
+        <v>16.83</v>
       </c>
       <c r="AF61" s="0">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AG61" s="0">
-        <v>6.09</v>
+        <v>5.77</v>
       </c>
       <c r="AH61" s="0">
-        <v>6.09</v>
+        <v>5.77</v>
       </c>
       <c r="AI61" s="0" t="s">
         <v>47</v>
@@ -7731,13 +7731,13 @@
         <v>900</v>
       </c>
       <c r="O62" s="0">
-        <v>83.98</v>
+        <v>81.72</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>1.09538</v>
+        <v>1.09415</v>
       </c>
       <c r="R62" s="0">
         <v>1.09506</v>
@@ -7746,49 +7746,49 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="U62" s="0">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V62" s="0">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="W62" s="0">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="X62" s="0">
-        <v>4.76</v>
+        <v>5.07</v>
       </c>
       <c r="Y62" s="0">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="Z62" s="0">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="AA62" s="0">
-        <v>-0.45</v>
+        <v>-3.129</v>
       </c>
       <c r="AB62" s="0">
-        <v>0.385</v>
+        <v>-3.318</v>
       </c>
       <c r="AC62" s="0">
-        <v>10.21</v>
+        <v>10.67</v>
       </c>
       <c r="AD62" s="0">
-        <v>17.27</v>
+        <v>16.79</v>
       </c>
       <c r="AE62" s="0">
-        <v>17.27</v>
+        <v>16.79</v>
       </c>
       <c r="AF62" s="0">
-        <v>-0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AG62" s="0">
-        <v>6.08</v>
+        <v>5.75</v>
       </c>
       <c r="AH62" s="0">
-        <v>6.08</v>
+        <v>5.75</v>
       </c>
       <c r="AI62" s="0" t="s">
         <v>47</v>
@@ -7838,13 +7838,13 @@
         <v>1696.25</v>
       </c>
       <c r="O63" s="0">
-        <v>99.48</v>
+        <v>97.4</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>2.44554</v>
+        <v>2.45783</v>
       </c>
       <c r="R63" s="0">
         <v>2.43086</v>
@@ -7853,49 +7853,49 @@
         <v>0</v>
       </c>
       <c r="T63" s="0">
-        <v>-119</v>
+        <v>-45</v>
       </c>
       <c r="U63" s="0">
-        <v>-3</v>
+        <v>71</v>
       </c>
       <c r="V63" s="0">
-        <v>-67</v>
+        <v>-1</v>
       </c>
       <c r="W63" s="0">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="X63" s="0">
-        <v>2.67</v>
+        <v>3.34</v>
       </c>
       <c r="Y63" s="0">
-        <v>5.85</v>
+        <v>5.98</v>
       </c>
       <c r="Z63" s="0">
-        <v>5.85</v>
+        <v>5.98</v>
       </c>
       <c r="AA63" s="0">
-        <v>0.121</v>
+        <v>-1.973</v>
       </c>
       <c r="AB63" s="0">
-        <v>0.391</v>
+        <v>-1.982</v>
       </c>
       <c r="AC63" s="0">
-        <v>3.43</v>
+        <v>4.55</v>
       </c>
       <c r="AD63" s="0">
-        <v>16.89</v>
+        <v>16.53</v>
       </c>
       <c r="AE63" s="0">
-        <v>16.89</v>
+        <v>16.53</v>
       </c>
       <c r="AF63" s="0">
-        <v>-2.08</v>
+        <v>-2.02</v>
       </c>
       <c r="AG63" s="0">
-        <v>5.81</v>
+        <v>5.57</v>
       </c>
       <c r="AH63" s="0">
-        <v>5.81</v>
+        <v>5.57</v>
       </c>
       <c r="AI63" s="0" t="s">
         <v>47</v>
@@ -7945,13 +7945,13 @@
         <v>1850</v>
       </c>
       <c r="O64" s="0">
-        <v>101.28</v>
+        <v>99.72</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>2.71546</v>
+        <v>2.74446</v>
       </c>
       <c r="R64" s="0">
         <v>2.70136</v>
@@ -7960,49 +7960,49 @@
         <v>0</v>
       </c>
       <c r="T64" s="0">
-        <v>-160</v>
+        <v>-94</v>
       </c>
       <c r="U64" s="0">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="V64" s="0">
-        <v>-117</v>
+        <v>-51</v>
       </c>
       <c r="W64" s="0">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="X64" s="0">
-        <v>2.24</v>
+        <v>2.84</v>
       </c>
       <c r="Y64" s="0">
-        <v>5.15</v>
+        <v>6.09</v>
       </c>
       <c r="Z64" s="0">
-        <v>6</v>
+        <v>6.09</v>
       </c>
       <c r="AA64" s="0">
-        <v>0.04</v>
+        <v>-1.501</v>
       </c>
       <c r="AB64" s="0">
-        <v>0.239</v>
+        <v>-1.489</v>
       </c>
       <c r="AC64" s="0">
-        <v>2.72</v>
+        <v>3.46</v>
       </c>
       <c r="AD64" s="0">
-        <v>0.87</v>
+        <v>16.21</v>
       </c>
       <c r="AE64" s="0">
-        <v>16.47</v>
+        <v>16.21</v>
       </c>
       <c r="AF64" s="0">
-        <v>-1.56</v>
+        <v>-1.78</v>
       </c>
       <c r="AG64" s="0">
-        <v>0.01</v>
+        <v>5.36</v>
       </c>
       <c r="AH64" s="0">
-        <v>5.53</v>
+        <v>5.36</v>
       </c>
       <c r="AI64" s="0" t="s">
         <v>47</v>
@@ -8049,67 +8049,67 @@
         <v>115</v>
       </c>
       <c r="N65" s="0">
-        <v>451.073</v>
+        <v>451.007</v>
       </c>
       <c r="O65" s="0">
-        <v>93</v>
+        <v>92.6</v>
       </c>
       <c r="P65" s="0">
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>0.60796</v>
+        <v>0.62129</v>
       </c>
       <c r="R65" s="0">
-        <v>0.61467</v>
+        <v>0.61458</v>
       </c>
       <c r="S65" s="0">
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="U65" s="0">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="V65" s="0">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="W65" s="0">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="X65" s="0">
-        <v>4.35</v>
+        <v>4.38</v>
       </c>
       <c r="Y65" s="0">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="Z65" s="0">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="AA65" s="0">
-        <v>-1.566</v>
+        <v>-1.99</v>
       </c>
       <c r="AB65" s="0">
-        <v>-1.012</v>
+        <v>-2.029</v>
       </c>
       <c r="AC65" s="0">
-        <v>6.95</v>
+        <v>6.98</v>
       </c>
       <c r="AD65" s="0">
-        <v>16.2</v>
+        <v>16.13</v>
       </c>
       <c r="AE65" s="0">
-        <v>16.2</v>
+        <v>16.13</v>
       </c>
       <c r="AF65" s="0">
-        <v>-1.25</v>
+        <v>-1.23</v>
       </c>
       <c r="AG65" s="0">
-        <v>5.34</v>
+        <v>5.3</v>
       </c>
       <c r="AH65" s="0">
-        <v>5.34</v>
+        <v>5.3</v>
       </c>
       <c r="AI65" s="0" t="s">
         <v>47</v>
@@ -8156,67 +8156,67 @@
         <v>115</v>
       </c>
       <c r="N66" s="0">
-        <v>426.013</v>
+        <v>425.951</v>
       </c>
       <c r="O66" s="0">
-        <v>92.92</v>
+        <v>91.64</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>0.57369</v>
+        <v>0.58069</v>
       </c>
       <c r="R66" s="0">
-        <v>0.57315</v>
+        <v>0.57307</v>
       </c>
       <c r="S66" s="0">
         <v>0</v>
       </c>
       <c r="T66" s="0">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="U66" s="0">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="V66" s="0">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="W66" s="0">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="X66" s="0">
-        <v>4.43</v>
+        <v>4.65</v>
       </c>
       <c r="Y66" s="0">
-        <v>6.14</v>
+        <v>6.23</v>
       </c>
       <c r="Z66" s="0">
-        <v>6.14</v>
+        <v>6.23</v>
       </c>
       <c r="AA66" s="0">
-        <v>-0.386</v>
+        <v>-1.758</v>
       </c>
       <c r="AB66" s="0">
-        <v>0.174</v>
+        <v>-1.817</v>
       </c>
       <c r="AC66" s="0">
-        <v>6.81</v>
+        <v>7.17</v>
       </c>
       <c r="AD66" s="0">
-        <v>16.11</v>
+        <v>15.89</v>
       </c>
       <c r="AE66" s="0">
-        <v>16.11</v>
+        <v>15.89</v>
       </c>
       <c r="AF66" s="0">
-        <v>-1.65</v>
+        <v>-1.45</v>
       </c>
       <c r="AG66" s="0">
-        <v>5.28</v>
+        <v>5.14</v>
       </c>
       <c r="AH66" s="0">
-        <v>5.28</v>
+        <v>5.14</v>
       </c>
       <c r="AI66" s="0" t="s">
         <v>47</v>
@@ -8263,61 +8263,61 @@
         <v>115</v>
       </c>
       <c r="N67" s="0">
-        <v>501.192</v>
+        <v>501.119</v>
       </c>
       <c r="O67" s="0">
-        <v>100.68</v>
+        <v>99</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>0.7313</v>
+        <v>0.73804</v>
       </c>
       <c r="R67" s="0">
-        <v>0.72577</v>
+        <v>0.72566</v>
       </c>
       <c r="S67" s="0">
         <v>0</v>
       </c>
       <c r="T67" s="0">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="U67" s="0">
-        <v>-5</v>
+        <v>49</v>
       </c>
       <c r="V67" s="0">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="W67" s="0">
-        <v>-3</v>
+        <v>53</v>
       </c>
       <c r="X67" s="0">
-        <v>6.44</v>
+        <v>7.14</v>
       </c>
       <c r="Y67" s="0">
-        <v>6.05</v>
+        <v>6.57</v>
       </c>
       <c r="Z67" s="0">
-        <v>6.05</v>
+        <v>6.57</v>
       </c>
       <c r="AA67" s="0">
-        <v>0.279</v>
+        <v>-1.394</v>
       </c>
       <c r="AB67" s="0">
-        <v>0.611</v>
+        <v>-1.238</v>
       </c>
       <c r="AC67" s="0">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="AD67" s="0">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="AE67" s="0">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="AF67" s="0">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AG67" s="0">
         <v>0.14</v>
@@ -8370,61 +8370,61 @@
         <v>115</v>
       </c>
       <c r="N68" s="0">
-        <v>601.431</v>
+        <v>601.343</v>
       </c>
       <c r="O68" s="0">
-        <v>98.96</v>
+        <v>96.96</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0.86257</v>
+        <v>0.8674</v>
       </c>
       <c r="R68" s="0">
-        <v>0.86225</v>
+        <v>0.86212</v>
       </c>
       <c r="S68" s="0">
         <v>0</v>
       </c>
       <c r="T68" s="0">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="U68" s="0">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="V68" s="0">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="W68" s="0">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="X68" s="0">
-        <v>6.34</v>
+        <v>6.67</v>
       </c>
       <c r="Y68" s="0">
-        <v>6.58</v>
+        <v>7.1</v>
       </c>
       <c r="Z68" s="0">
-        <v>6.58</v>
+        <v>7.1</v>
       </c>
       <c r="AA68" s="0">
-        <v>-0.443</v>
+        <v>-2.455</v>
       </c>
       <c r="AB68" s="0">
-        <v>-0.192</v>
+        <v>-2.357</v>
       </c>
       <c r="AC68" s="0">
-        <v>3.82</v>
+        <v>3.69</v>
       </c>
       <c r="AD68" s="0">
-        <v>3.97</v>
+        <v>3.95</v>
       </c>
       <c r="AE68" s="0">
-        <v>3.97</v>
+        <v>3.95</v>
       </c>
       <c r="AF68" s="0">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="AG68" s="0">
         <v>0.2</v>
@@ -8477,67 +8477,67 @@
         <v>55</v>
       </c>
       <c r="N69" s="0">
-        <v>501.192</v>
+        <v>501.119</v>
       </c>
       <c r="O69" s="0">
-        <v>110.96</v>
+        <v>111.16</v>
       </c>
       <c r="P69" s="0">
         <v>0</v>
       </c>
       <c r="Q69" s="0">
-        <v>0.80597</v>
+        <v>0.82869</v>
       </c>
       <c r="R69" s="0">
-        <v>0.8021</v>
+        <v>0.80198</v>
       </c>
       <c r="S69" s="0">
         <v>0</v>
       </c>
       <c r="T69" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U69" s="0">
+        <v>0</v>
+      </c>
+      <c r="V69" s="0">
+        <v>179</v>
+      </c>
+      <c r="W69" s="0">
         <v>-1</v>
       </c>
-      <c r="V69" s="0">
-        <v>178</v>
-      </c>
-      <c r="W69" s="0">
-        <v>-2</v>
-      </c>
       <c r="X69" s="0">
-        <v>5.52</v>
+        <v>5.43</v>
       </c>
       <c r="Y69" s="0">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="Z69" s="0">
-        <v>8.25</v>
+        <v>8.23</v>
       </c>
       <c r="AA69" s="0">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AB69" s="0">
-        <v>0.515</v>
+        <v>0.235</v>
       </c>
       <c r="AC69" s="0">
-        <v>5.26</v>
+        <v>5.24</v>
       </c>
       <c r="AD69" s="0">
         <v>3.76</v>
       </c>
       <c r="AE69" s="0">
-        <v>11.92</v>
+        <v>11.94</v>
       </c>
       <c r="AF69" s="0">
-        <v>-0.3</v>
+        <v>-0.32</v>
       </c>
       <c r="AG69" s="0">
         <v>0.19</v>
       </c>
       <c r="AH69" s="0">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="AI69" s="0" t="s">
         <v>47</v>
@@ -8584,67 +8584,67 @@
         <v>55</v>
       </c>
       <c r="N70" s="0">
-        <v>1002.384</v>
+        <v>1002.238</v>
       </c>
       <c r="O70" s="0">
-        <v>86.08</v>
+        <v>84</v>
       </c>
       <c r="P70" s="0">
         <v>0</v>
       </c>
       <c r="Q70" s="0">
-        <v>1.2505</v>
+        <v>1.25243</v>
       </c>
       <c r="R70" s="0">
-        <v>1.25549</v>
+        <v>1.2553</v>
       </c>
       <c r="S70" s="0">
         <v>0</v>
       </c>
       <c r="T70" s="0">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="U70" s="0">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="V70" s="0">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="W70" s="0">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="X70" s="0">
-        <v>4.4</v>
+        <v>4.69</v>
       </c>
       <c r="Y70" s="0">
-        <v>5.57</v>
+        <v>5.71</v>
       </c>
       <c r="Z70" s="0">
-        <v>5.57</v>
+        <v>5.71</v>
       </c>
       <c r="AA70" s="0">
-        <v>-0.875</v>
+        <v>-3.27</v>
       </c>
       <c r="AB70" s="0">
-        <v>-0.084</v>
+        <v>-3.424</v>
       </c>
       <c r="AC70" s="0">
-        <v>9.68</v>
+        <v>10.08</v>
       </c>
       <c r="AD70" s="0">
-        <v>17.79</v>
+        <v>17.35</v>
       </c>
       <c r="AE70" s="0">
-        <v>17.79</v>
+        <v>17.35</v>
       </c>
       <c r="AF70" s="0">
-        <v>-0.64</v>
+        <v>-0.04</v>
       </c>
       <c r="AG70" s="0">
-        <v>6.43</v>
+        <v>6.12</v>
       </c>
       <c r="AH70" s="0">
-        <v>6.43</v>
+        <v>6.12</v>
       </c>
       <c r="AI70" s="0" t="s">
         <v>47</v>
@@ -8691,67 +8691,67 @@
         <v>55</v>
       </c>
       <c r="N71" s="0">
-        <v>806.919</v>
+        <v>806.801</v>
       </c>
       <c r="O71" s="0">
-        <v>98.92</v>
+        <v>98.04</v>
       </c>
       <c r="P71" s="0">
         <v>0</v>
       </c>
       <c r="Q71" s="0">
-        <v>1.15681</v>
+        <v>1.17672</v>
       </c>
       <c r="R71" s="0">
-        <v>1.15498</v>
+        <v>1.15481</v>
       </c>
       <c r="S71" s="0">
         <v>0</v>
       </c>
       <c r="T71" s="0">
-        <v>-132</v>
+        <v>-98</v>
       </c>
       <c r="U71" s="0">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="V71" s="0">
-        <v>-75</v>
+        <v>-45</v>
       </c>
       <c r="W71" s="0">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="X71" s="0">
-        <v>2.53</v>
+        <v>2.79</v>
       </c>
       <c r="Y71" s="0">
-        <v>5.74</v>
+        <v>5.79</v>
       </c>
       <c r="Z71" s="0">
-        <v>5.74</v>
+        <v>5.79</v>
       </c>
       <c r="AA71" s="0">
-        <v>-0.322</v>
+        <v>-1.209</v>
       </c>
       <c r="AB71" s="0">
-        <v>-0.125</v>
+        <v>-1.246</v>
       </c>
       <c r="AC71" s="0">
-        <v>3.17</v>
+        <v>3.77</v>
       </c>
       <c r="AD71" s="0">
-        <v>17.25</v>
+        <v>17.09</v>
       </c>
       <c r="AE71" s="0">
-        <v>17.25</v>
+        <v>17.09</v>
       </c>
       <c r="AF71" s="0">
-        <v>-2.73</v>
+        <v>-2.43</v>
       </c>
       <c r="AG71" s="0">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="AH71" s="0">
-        <v>6.05</v>
+        <v>5.94</v>
       </c>
       <c r="AI71" s="0" t="s">
         <v>47</v>
@@ -8801,13 +8801,13 @@
         <v>1300</v>
       </c>
       <c r="O72" s="0">
-        <v>74.72</v>
+        <v>72.96</v>
       </c>
       <c r="P72" s="0">
         <v>0</v>
       </c>
       <c r="Q72" s="0">
-        <v>1.40776</v>
+        <v>1.41101</v>
       </c>
       <c r="R72" s="0">
         <v>1.413</v>
@@ -8816,49 +8816,49 @@
         <v>0</v>
       </c>
       <c r="T72" s="0">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="U72" s="0">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="V72" s="0">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="W72" s="0">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="X72" s="0">
-        <v>5.32</v>
+        <v>5.54</v>
       </c>
       <c r="Y72" s="0">
-        <v>5.72</v>
+        <v>5.85</v>
       </c>
       <c r="Z72" s="0">
-        <v>5.72</v>
+        <v>5.85</v>
       </c>
       <c r="AA72" s="0">
-        <v>-0.849</v>
+        <v>-3.185</v>
       </c>
       <c r="AB72" s="0">
-        <v>0.14</v>
+        <v>-3.482</v>
       </c>
       <c r="AC72" s="0">
-        <v>12.6</v>
+        <v>12.73</v>
       </c>
       <c r="AD72" s="0">
-        <v>17.41</v>
+        <v>17</v>
       </c>
       <c r="AE72" s="0">
-        <v>17.41</v>
+        <v>17</v>
       </c>
       <c r="AF72" s="0">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="AG72" s="0">
-        <v>6.14</v>
+        <v>5.85</v>
       </c>
       <c r="AH72" s="0">
-        <v>6.14</v>
+        <v>5.85</v>
       </c>
       <c r="AI72" s="0" t="s">
         <v>47</v>
@@ -8908,13 +8908,13 @@
         <v>500</v>
       </c>
       <c r="O73" s="0">
-        <v>87</v>
+        <v>85.72</v>
       </c>
       <c r="P73" s="0">
         <v>0</v>
       </c>
       <c r="Q73" s="0">
-        <v>0.63043</v>
+        <v>0.63761</v>
       </c>
       <c r="R73" s="0">
         <v>0.63433</v>
@@ -8923,49 +8923,49 @@
         <v>0</v>
       </c>
       <c r="T73" s="0">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="U73" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="V73" s="0">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="W73" s="0">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="X73" s="0">
-        <v>4.59</v>
+        <v>4.76</v>
       </c>
       <c r="Y73" s="0">
-        <v>5.63</v>
+        <v>5.71</v>
       </c>
       <c r="Z73" s="0">
-        <v>5.63</v>
+        <v>5.71</v>
       </c>
       <c r="AA73" s="0">
-        <v>-1.091</v>
+        <v>-2.547</v>
       </c>
       <c r="AB73" s="0">
-        <v>-0.322</v>
+        <v>-2.692</v>
       </c>
       <c r="AC73" s="0">
-        <v>9.54</v>
+        <v>9.76</v>
       </c>
       <c r="AD73" s="0">
-        <v>17.68</v>
+        <v>17.41</v>
       </c>
       <c r="AE73" s="0">
-        <v>17.68</v>
+        <v>17.41</v>
       </c>
       <c r="AF73" s="0">
-        <v>-0.66</v>
+        <v>-0.38</v>
       </c>
       <c r="AG73" s="0">
-        <v>6.32</v>
+        <v>6.14</v>
       </c>
       <c r="AH73" s="0">
-        <v>6.32</v>
+        <v>6.14</v>
       </c>
       <c r="AI73" s="0" t="s">
         <v>47</v>
@@ -9015,13 +9015,13 @@
         <v>1000</v>
       </c>
       <c r="O74" s="0">
-        <v>99.8</v>
+        <v>97.32</v>
       </c>
       <c r="P74" s="0">
         <v>0</v>
       </c>
       <c r="Q74" s="0">
-        <v>1.44637</v>
+        <v>1.44779</v>
       </c>
       <c r="R74" s="0">
         <v>1.44519</v>
@@ -9030,43 +9030,43 @@
         <v>0</v>
       </c>
       <c r="T74" s="0">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="U74" s="0">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="V74" s="0">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="W74" s="0">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="X74" s="0">
-        <v>6.88</v>
+        <v>7.72</v>
       </c>
       <c r="Y74" s="0">
-        <v>5.89</v>
+        <v>6.6</v>
       </c>
       <c r="Z74" s="0">
-        <v>5.89</v>
+        <v>6.6</v>
       </c>
       <c r="AA74" s="0">
-        <v>-0.399</v>
+        <v>-2.874</v>
       </c>
       <c r="AB74" s="0">
-        <v>-0.04</v>
+        <v>-2.726</v>
       </c>
       <c r="AC74" s="0">
-        <v>3.44</v>
+        <v>3.34</v>
       </c>
       <c r="AD74" s="0">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="AE74" s="0">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="AF74" s="0">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="AG74" s="0">
         <v>0.16</v>
@@ -9122,46 +9122,46 @@
         <v>1000</v>
       </c>
       <c r="O75" s="0">
-        <v>101.36</v>
+        <v>101.2</v>
       </c>
       <c r="P75" s="0">
         <v>0</v>
       </c>
       <c r="Q75" s="0">
-        <v>1.46898</v>
+        <v>1.50551</v>
       </c>
       <c r="R75" s="0">
-        <v>1.46366</v>
+        <v>1.46365</v>
       </c>
       <c r="S75" s="0">
         <v>0</v>
       </c>
       <c r="T75" s="0">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="U75" s="0">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="V75" s="0">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="W75" s="0">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="X75" s="0">
-        <v>6.48</v>
+        <v>6.66</v>
       </c>
       <c r="Y75" s="0">
-        <v>5.32</v>
+        <v>5.43</v>
       </c>
       <c r="Z75" s="0">
-        <v>5.32</v>
+        <v>5.43</v>
       </c>
       <c r="AA75" s="0">
-        <v>-0.118</v>
+        <v>-0.276</v>
       </c>
       <c r="AB75" s="0">
-        <v>-0.008</v>
+        <v>-0.202</v>
       </c>
       <c r="AC75" s="0">
         <v>1.41</v>
@@ -9229,13 +9229,13 @@
         <v>1000</v>
       </c>
       <c r="O76" s="0">
-        <v>102.36</v>
+        <v>101.72</v>
       </c>
       <c r="P76" s="0">
         <v>0</v>
       </c>
       <c r="Q76" s="0">
-        <v>1.48347</v>
+        <v>1.51325</v>
       </c>
       <c r="R76" s="0">
         <v>1.47462</v>
@@ -9244,49 +9244,49 @@
         <v>0</v>
       </c>
       <c r="T76" s="0">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="U76" s="0">
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="V76" s="0">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="W76" s="0">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="X76" s="0">
-        <v>4.45</v>
+        <v>4.52</v>
       </c>
       <c r="Y76" s="0">
-        <v>5.88</v>
+        <v>6.05</v>
       </c>
       <c r="Z76" s="0">
-        <v>6.38</v>
+        <v>6.43</v>
       </c>
       <c r="AA76" s="0">
-        <v>0.117</v>
+        <v>-0.509</v>
       </c>
       <c r="AB76" s="0">
-        <v>0.767</v>
+        <v>-0.538</v>
       </c>
       <c r="AC76" s="0">
-        <v>7.08</v>
+        <v>7.14</v>
       </c>
       <c r="AD76" s="0">
-        <v>3.88</v>
+        <v>3.87</v>
       </c>
       <c r="AE76" s="0">
-        <v>15.58</v>
+        <v>15.48</v>
       </c>
       <c r="AF76" s="0">
-        <v>-0.41</v>
+        <v>-0.46</v>
       </c>
       <c r="AG76" s="0">
         <v>0.19</v>
       </c>
       <c r="AH76" s="0">
-        <v>4.92</v>
+        <v>4.86</v>
       </c>
       <c r="AI76" s="0" t="s">
         <v>47</v>
@@ -9336,46 +9336,46 @@
         <v>850</v>
       </c>
       <c r="O77" s="0">
-        <v>101.36</v>
+        <v>101.6</v>
       </c>
       <c r="P77" s="0">
         <v>0</v>
       </c>
       <c r="Q77" s="0">
-        <v>1.24863</v>
+        <v>1.28474</v>
       </c>
       <c r="R77" s="0">
-        <v>1.24264</v>
+        <v>1.24263</v>
       </c>
       <c r="S77" s="0">
         <v>0</v>
       </c>
       <c r="T77" s="0">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="U77" s="0">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="V77" s="0">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="W77" s="0">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="X77" s="0">
-        <v>6.96</v>
+        <v>6.56</v>
       </c>
       <c r="Y77" s="0">
-        <v>4.79</v>
+        <v>4.48</v>
       </c>
       <c r="Z77" s="0">
-        <v>4.79</v>
+        <v>4.48</v>
       </c>
       <c r="AA77" s="0">
-        <v>0</v>
+        <v>0.237</v>
       </c>
       <c r="AB77" s="0">
-        <v>0.022</v>
+        <v>0.229</v>
       </c>
       <c r="AC77" s="0">
         <v>0.74</v>
@@ -9443,13 +9443,13 @@
         <v>862.5</v>
       </c>
       <c r="O78" s="0">
-        <v>102.16</v>
+        <v>102.12</v>
       </c>
       <c r="P78" s="0">
         <v>0</v>
       </c>
       <c r="Q78" s="0">
-        <v>1.27699</v>
+        <v>1.31031</v>
       </c>
       <c r="R78" s="0">
         <v>1.26987</v>
@@ -9458,31 +9458,31 @@
         <v>0</v>
       </c>
       <c r="T78" s="0">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="U78" s="0">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V78" s="0">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="W78" s="0">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="X78" s="0">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="Y78" s="0">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="Z78" s="0">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="AA78" s="0">
-        <v>0.078</v>
+        <v>0.039</v>
       </c>
       <c r="AB78" s="0">
-        <v>0.083</v>
+        <v>0.001</v>
       </c>
       <c r="AC78" s="0">
         <v>0.51</v>
@@ -9547,61 +9547,61 @@
         <v>115</v>
       </c>
       <c r="N79" s="0">
-        <v>250.596</v>
+        <v>250.559</v>
       </c>
       <c r="O79" s="0">
-        <v>99.48</v>
+        <v>97.75</v>
       </c>
       <c r="P79" s="0">
         <v>0</v>
       </c>
       <c r="Q79" s="0">
-        <v>0.36129</v>
+        <v>0.36434</v>
       </c>
       <c r="R79" s="0">
-        <v>0.36577</v>
+        <v>0.36572</v>
       </c>
       <c r="S79" s="0">
         <v>0</v>
       </c>
       <c r="T79" s="0">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="U79" s="0">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="V79" s="0">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="W79" s="0">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="X79" s="0">
-        <v>6.31</v>
+        <v>7.04</v>
       </c>
       <c r="Y79" s="0">
-        <v>5.9</v>
+        <v>6.44</v>
       </c>
       <c r="Z79" s="0">
-        <v>5.9</v>
+        <v>6.44</v>
       </c>
       <c r="AA79" s="0">
-        <v>-1.7</v>
+        <v>-3.413</v>
       </c>
       <c r="AB79" s="0">
-        <v>-1.364</v>
+        <v>-3.255</v>
       </c>
       <c r="AC79" s="0">
-        <v>3.22</v>
+        <v>3.19</v>
       </c>
       <c r="AD79" s="0">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="AE79" s="0">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="AF79" s="0">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AG79" s="0">
         <v>0.14</v>
@@ -9654,67 +9654,67 @@
         <v>92</v>
       </c>
       <c r="N80" s="0">
-        <v>400.954</v>
+        <v>400.895</v>
       </c>
       <c r="O80" s="0">
-        <v>85.52</v>
+        <v>84.32</v>
       </c>
       <c r="P80" s="0">
         <v>0</v>
       </c>
       <c r="Q80" s="0">
-        <v>0.49695</v>
+        <v>0.50288</v>
       </c>
       <c r="R80" s="0">
-        <v>0.49502</v>
+        <v>0.49495</v>
       </c>
       <c r="S80" s="0">
         <v>0</v>
       </c>
       <c r="T80" s="0">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="U80" s="0">
-        <v>-18</v>
+        <v>7</v>
       </c>
       <c r="V80" s="0">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="W80" s="0">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="X80" s="0">
-        <v>4.41</v>
+        <v>4.57</v>
       </c>
       <c r="Y80" s="0">
-        <v>5.53</v>
+        <v>5.61</v>
       </c>
       <c r="Z80" s="0">
-        <v>5.53</v>
+        <v>5.61</v>
       </c>
       <c r="AA80" s="0">
-        <v>-0.093</v>
+        <v>-1.495</v>
       </c>
       <c r="AB80" s="0">
-        <v>0.723</v>
+        <v>-1.677</v>
       </c>
       <c r="AC80" s="0">
-        <v>9.86</v>
+        <v>10.08</v>
       </c>
       <c r="AD80" s="0">
-        <v>17.95</v>
+        <v>17.69</v>
       </c>
       <c r="AE80" s="0">
-        <v>17.95</v>
+        <v>17.69</v>
       </c>
       <c r="AF80" s="0">
-        <v>-0.57</v>
+        <v>-0.24</v>
       </c>
       <c r="AG80" s="0">
-        <v>6.53</v>
+        <v>6.35</v>
       </c>
       <c r="AH80" s="0">
-        <v>6.53</v>
+        <v>6.35</v>
       </c>
       <c r="AI80" s="0" t="s">
         <v>47</v>
@@ -9761,67 +9761,67 @@
         <v>115</v>
       </c>
       <c r="N81" s="0">
-        <v>516.228</v>
+        <v>516.152</v>
       </c>
       <c r="O81" s="0">
-        <v>99</v>
+        <v>89.72</v>
       </c>
       <c r="P81" s="0">
         <v>0</v>
       </c>
       <c r="Q81" s="0">
-        <v>0.74067</v>
+        <v>0.68892</v>
       </c>
       <c r="R81" s="0">
-        <v>0.73682</v>
+        <v>0.73671</v>
       </c>
       <c r="S81" s="0">
         <v>0</v>
       </c>
       <c r="T81" s="0">
-        <v>216</v>
+        <v>361</v>
       </c>
       <c r="U81" s="0">
-        <v>-31</v>
+        <v>114</v>
       </c>
       <c r="V81" s="0">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="W81" s="0">
-        <v>-27</v>
+        <v>80</v>
       </c>
       <c r="X81" s="0">
-        <v>7.28</v>
+        <v>9.06</v>
       </c>
       <c r="Y81" s="0">
-        <v>6.79</v>
+        <v>9.72</v>
       </c>
       <c r="Z81" s="0">
-        <v>6.79</v>
+        <v>9.72</v>
       </c>
       <c r="AA81" s="0">
-        <v>0.04</v>
+        <v>-7.727</v>
       </c>
       <c r="AB81" s="0">
-        <v>0.374</v>
+        <v>-7.577</v>
       </c>
       <c r="AC81" s="0">
-        <v>3.31</v>
+        <v>2.58</v>
       </c>
       <c r="AD81" s="0">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="AE81" s="0">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="AF81" s="0">
-        <v>0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="AG81" s="0">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AH81" s="0">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AI81" s="0" t="s">
         <v>47</v>
@@ -9868,67 +9868,67 @@
         <v>115</v>
       </c>
       <c r="N82" s="0">
-        <v>350.835</v>
+        <v>350.783</v>
       </c>
       <c r="O82" s="0">
-        <v>72</v>
+        <v>67.04</v>
       </c>
       <c r="P82" s="0">
         <v>0</v>
       </c>
       <c r="Q82" s="0">
-        <v>0.36609</v>
+        <v>0.34984</v>
       </c>
       <c r="R82" s="0">
-        <v>0.36878</v>
+        <v>0.36873</v>
       </c>
       <c r="S82" s="0">
         <v>0</v>
       </c>
       <c r="T82" s="0">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="U82" s="0">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="V82" s="0">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="W82" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="X82" s="0">
-        <v>6.22</v>
+        <v>6.86</v>
       </c>
       <c r="Y82" s="0">
-        <v>6.53</v>
+        <v>7.02</v>
       </c>
       <c r="Z82" s="0">
-        <v>6.53</v>
+        <v>7.02</v>
       </c>
       <c r="AA82" s="0">
-        <v>-1.207</v>
+        <v>-8.013</v>
       </c>
       <c r="AB82" s="0">
-        <v>-0.23</v>
+        <v>-8.305</v>
       </c>
       <c r="AC82" s="0">
-        <v>12.27</v>
+        <v>12.52</v>
       </c>
       <c r="AD82" s="0">
-        <v>15.07</v>
+        <v>14</v>
       </c>
       <c r="AE82" s="0">
-        <v>15.07</v>
+        <v>14</v>
       </c>
       <c r="AF82" s="0">
-        <v>1.53</v>
+        <v>2.38</v>
       </c>
       <c r="AG82" s="0">
-        <v>4.65</v>
+        <v>4.02</v>
       </c>
       <c r="AH82" s="0">
-        <v>4.65</v>
+        <v>4.02</v>
       </c>
       <c r="AI82" s="0" t="s">
         <v>47</v>
@@ -9975,67 +9975,67 @@
         <v>115</v>
       </c>
       <c r="N83" s="0">
-        <v>400.954</v>
+        <v>400.895</v>
       </c>
       <c r="O83" s="0">
-        <v>76.6</v>
+        <v>75.36</v>
       </c>
       <c r="P83" s="0">
         <v>0</v>
       </c>
       <c r="Q83" s="0">
-        <v>0.44511</v>
+        <v>0.44944</v>
       </c>
       <c r="R83" s="0">
-        <v>0.44529</v>
+        <v>0.44522</v>
       </c>
       <c r="S83" s="0">
         <v>0</v>
       </c>
       <c r="T83" s="0">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="U83" s="0">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="V83" s="0">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="W83" s="0">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="X83" s="0">
-        <v>5.31</v>
+        <v>5.46</v>
       </c>
       <c r="Y83" s="0">
-        <v>5.88</v>
+        <v>5.98</v>
       </c>
       <c r="Z83" s="0">
-        <v>5.88</v>
+        <v>5.98</v>
       </c>
       <c r="AA83" s="0">
-        <v>-0.519</v>
+        <v>-2.13</v>
       </c>
       <c r="AB83" s="0">
-        <v>0.426</v>
+        <v>-2.398</v>
       </c>
       <c r="AC83" s="0">
-        <v>12.07</v>
+        <v>12.18</v>
       </c>
       <c r="AD83" s="0">
-        <v>16.82</v>
+        <v>16.54</v>
       </c>
       <c r="AE83" s="0">
-        <v>16.82</v>
+        <v>16.54</v>
       </c>
       <c r="AF83" s="0">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="AG83" s="0">
-        <v>5.77</v>
+        <v>5.58</v>
       </c>
       <c r="AH83" s="0">
-        <v>5.77</v>
+        <v>5.58</v>
       </c>
       <c r="AI83" s="0" t="s">
         <v>47</v>
@@ -10082,67 +10082,67 @@
         <v>115</v>
       </c>
       <c r="N84" s="0">
-        <v>501.192</v>
+        <v>501.119</v>
       </c>
       <c r="O84" s="0">
-        <v>97.12</v>
+        <v>88.32</v>
       </c>
       <c r="P84" s="0">
         <v>0</v>
       </c>
       <c r="Q84" s="0">
-        <v>0.70544</v>
+        <v>0.65842</v>
       </c>
       <c r="R84" s="0">
-        <v>0.71131</v>
+        <v>0.7112</v>
       </c>
       <c r="S84" s="0">
         <v>0</v>
       </c>
       <c r="T84" s="0">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="U84" s="0">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="V84" s="0">
-        <v>250</v>
+        <v>322</v>
       </c>
       <c r="W84" s="0">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="X84" s="0">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="Y84" s="0">
-        <v>6.44</v>
+        <v>8.3</v>
       </c>
       <c r="Z84" s="0">
-        <v>6.44</v>
+        <v>8.3</v>
       </c>
       <c r="AA84" s="0">
-        <v>-1.301</v>
+        <v>-10.244</v>
       </c>
       <c r="AB84" s="0">
-        <v>-0.768</v>
+        <v>-10.133</v>
       </c>
       <c r="AC84" s="0">
-        <v>4.88</v>
+        <v>4.25</v>
       </c>
       <c r="AD84" s="0">
-        <v>5.16</v>
+        <v>5.05</v>
       </c>
       <c r="AE84" s="0">
-        <v>5.16</v>
+        <v>5.05</v>
       </c>
       <c r="AF84" s="0">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="AG84" s="0">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="AH84" s="0">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="AI84" s="0" t="s">
         <v>47</v>
@@ -10189,58 +10189,58 @@
         <v>115</v>
       </c>
       <c r="N85" s="0">
-        <v>501.192</v>
+        <v>501.119</v>
       </c>
       <c r="O85" s="0">
-        <v>102.32</v>
+        <v>100.36</v>
       </c>
       <c r="P85" s="0">
         <v>0</v>
       </c>
       <c r="Q85" s="0">
-        <v>0.74321</v>
+        <v>0.74818</v>
       </c>
       <c r="R85" s="0">
-        <v>0.74022</v>
+        <v>0.74011</v>
       </c>
       <c r="S85" s="0">
         <v>0</v>
       </c>
       <c r="T85" s="0">
-        <v>-18</v>
+        <v>120</v>
       </c>
       <c r="U85" s="0">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="V85" s="0">
-        <v>-101</v>
+        <v>134</v>
       </c>
       <c r="W85" s="0">
-        <v>56</v>
+        <v>291</v>
       </c>
       <c r="X85" s="0">
-        <v>4.65</v>
+        <v>6.42</v>
       </c>
       <c r="Y85" s="0">
-        <v>4.95</v>
+        <v>6.37</v>
       </c>
       <c r="Z85" s="0">
-        <v>4.95</v>
+        <v>6.37</v>
       </c>
       <c r="AA85" s="0">
-        <v>-0.078</v>
+        <v>-1.992</v>
       </c>
       <c r="AB85" s="0">
-        <v>0.021</v>
+        <v>-1.923</v>
       </c>
       <c r="AC85" s="0">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AD85" s="0">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AE85" s="0">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AF85" s="0">
         <v>0.03</v>
@@ -10296,67 +10296,67 @@
         <v>63</v>
       </c>
       <c r="N86" s="0">
-        <v>501.192</v>
+        <v>501.119</v>
       </c>
       <c r="O86" s="0">
-        <v>68.6</v>
+        <v>67.44</v>
       </c>
       <c r="P86" s="0">
         <v>0</v>
       </c>
       <c r="Q86" s="0">
-        <v>0.49828</v>
+        <v>0.50276</v>
       </c>
       <c r="R86" s="0">
-        <v>0.49878</v>
+        <v>0.49871</v>
       </c>
       <c r="S86" s="0">
         <v>0</v>
       </c>
       <c r="T86" s="0">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="U86" s="0">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="V86" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="W86" s="0">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="X86" s="0">
-        <v>5.94</v>
+        <v>6.08</v>
       </c>
       <c r="Y86" s="0">
-        <v>6.2</v>
+        <v>6.31</v>
       </c>
       <c r="Z86" s="0">
-        <v>6.2</v>
+        <v>6.31</v>
       </c>
       <c r="AA86" s="0">
-        <v>-0.58</v>
+        <v>-2.261</v>
       </c>
       <c r="AB86" s="0">
-        <v>0.446</v>
+        <v>-2.592</v>
       </c>
       <c r="AC86" s="0">
-        <v>13.26</v>
+        <v>13.33</v>
       </c>
       <c r="AD86" s="0">
-        <v>15.92</v>
+        <v>15.65</v>
       </c>
       <c r="AE86" s="0">
-        <v>15.92</v>
+        <v>15.65</v>
       </c>
       <c r="AF86" s="0">
-        <v>1.54</v>
+        <v>1.76</v>
       </c>
       <c r="AG86" s="0">
-        <v>5.18</v>
+        <v>5</v>
       </c>
       <c r="AH86" s="0">
-        <v>5.18</v>
+        <v>5</v>
       </c>
       <c r="AI86" s="0" t="s">
         <v>47</v>
@@ -10403,67 +10403,67 @@
         <v>63</v>
       </c>
       <c r="N87" s="0">
-        <v>250.596</v>
+        <v>250.559</v>
       </c>
       <c r="O87" s="0">
-        <v>92.6</v>
+        <v>91.06</v>
       </c>
       <c r="P87" s="0">
         <v>0</v>
       </c>
       <c r="Q87" s="0">
-        <v>0.33631</v>
+        <v>0.33942</v>
       </c>
       <c r="R87" s="0">
-        <v>0.33541</v>
+        <v>0.33536</v>
       </c>
       <c r="S87" s="0">
         <v>0</v>
       </c>
       <c r="T87" s="0">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="U87" s="0">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="V87" s="0">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="W87" s="0">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="X87" s="0">
-        <v>4.64</v>
+        <v>4.91</v>
       </c>
       <c r="Y87" s="0">
-        <v>6.29</v>
+        <v>6.4</v>
       </c>
       <c r="Z87" s="0">
-        <v>6.29</v>
+        <v>6.4</v>
       </c>
       <c r="AA87" s="0">
-        <v>-0.216</v>
+        <v>-1.875</v>
       </c>
       <c r="AB87" s="0">
-        <v>0.361</v>
+        <v>-1.937</v>
       </c>
       <c r="AC87" s="0">
-        <v>6.89</v>
+        <v>7.29</v>
       </c>
       <c r="AD87" s="0">
-        <v>15.69</v>
+        <v>15.43</v>
       </c>
       <c r="AE87" s="0">
-        <v>15.69</v>
+        <v>15.43</v>
       </c>
       <c r="AF87" s="0">
-        <v>-1.52</v>
+        <v>-1.21</v>
       </c>
       <c r="AG87" s="0">
-        <v>5.03</v>
+        <v>4.86</v>
       </c>
       <c r="AH87" s="0">
-        <v>5.03</v>
+        <v>4.86</v>
       </c>
       <c r="AI87" s="0" t="s">
         <v>47</v>
@@ -10510,67 +10510,67 @@
         <v>115</v>
       </c>
       <c r="N88" s="0">
-        <v>731.741</v>
+        <v>731.633</v>
       </c>
       <c r="O88" s="0">
-        <v>71.6</v>
+        <v>65.4</v>
       </c>
       <c r="P88" s="0">
         <v>0</v>
       </c>
       <c r="Q88" s="0">
-        <v>0.75931</v>
+        <v>0.71183</v>
       </c>
       <c r="R88" s="0">
-        <v>0.76073</v>
+        <v>0.76062</v>
       </c>
       <c r="S88" s="0">
         <v>0</v>
       </c>
       <c r="T88" s="0">
-        <v>278</v>
+        <v>369</v>
       </c>
       <c r="U88" s="0">
-        <v>-13</v>
+        <v>78</v>
       </c>
       <c r="V88" s="0">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="W88" s="0">
-        <v>-7</v>
+        <v>26</v>
       </c>
       <c r="X88" s="0">
-        <v>6.79</v>
+        <v>7.62</v>
       </c>
       <c r="Y88" s="0">
-        <v>7.05</v>
+        <v>7.72</v>
       </c>
       <c r="Z88" s="0">
-        <v>7.05</v>
+        <v>7.72</v>
       </c>
       <c r="AA88" s="0">
-        <v>-0.666</v>
+        <v>-9.267</v>
       </c>
       <c r="AB88" s="0">
-        <v>0.262</v>
+        <v>-9.538</v>
       </c>
       <c r="AC88" s="0">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="AD88" s="0">
-        <v>14.07</v>
+        <v>12.83</v>
       </c>
       <c r="AE88" s="0">
-        <v>14.07</v>
+        <v>12.83</v>
       </c>
       <c r="AF88" s="0">
-        <v>1.46</v>
+        <v>2.59</v>
       </c>
       <c r="AG88" s="0">
-        <v>4.03</v>
+        <v>3.36</v>
       </c>
       <c r="AH88" s="0">
-        <v>4.03</v>
+        <v>3.36</v>
       </c>
       <c r="AI88" s="0" t="s">
         <v>47</v>
@@ -10617,67 +10617,67 @@
         <v>200</v>
       </c>
       <c r="N89" s="0">
-        <v>601.431</v>
+        <v>601.343</v>
       </c>
       <c r="O89" s="0">
-        <v>82.6</v>
+        <v>80.32</v>
       </c>
       <c r="P89" s="0">
         <v>0</v>
       </c>
       <c r="Q89" s="0">
-        <v>0.71997</v>
+        <v>0.71851</v>
       </c>
       <c r="R89" s="0">
-        <v>0.72068</v>
+        <v>0.72057</v>
       </c>
       <c r="S89" s="0">
         <v>0</v>
       </c>
       <c r="T89" s="0">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="U89" s="0">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="V89" s="0">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="W89" s="0">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X89" s="0">
-        <v>4.52</v>
+        <v>4.82</v>
       </c>
       <c r="Y89" s="0">
-        <v>5.45</v>
+        <v>5.6</v>
       </c>
       <c r="Z89" s="0">
-        <v>5.45</v>
+        <v>5.6</v>
       </c>
       <c r="AA89" s="0">
-        <v>-0.578</v>
+        <v>-3.325</v>
       </c>
       <c r="AB89" s="0">
-        <v>0.324</v>
+        <v>-3.546</v>
       </c>
       <c r="AC89" s="0">
-        <v>11.08</v>
+        <v>11.45</v>
       </c>
       <c r="AD89" s="0">
-        <v>18.15</v>
+        <v>17.64</v>
       </c>
       <c r="AE89" s="0">
-        <v>18.15</v>
+        <v>17.64</v>
       </c>
       <c r="AF89" s="0">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="AG89" s="0">
-        <v>6.71</v>
+        <v>6.34</v>
       </c>
       <c r="AH89" s="0">
-        <v>6.71</v>
+        <v>6.34</v>
       </c>
       <c r="AI89" s="0" t="s">
         <v>47</v>
@@ -10724,67 +10724,67 @@
         <v>200</v>
       </c>
       <c r="N90" s="0">
-        <v>751.788</v>
+        <v>751.678</v>
       </c>
       <c r="O90" s="0">
-        <v>99.6</v>
+        <v>97.56</v>
       </c>
       <c r="P90" s="0">
         <v>0</v>
       </c>
       <c r="Q90" s="0">
-        <v>1.08521</v>
+        <v>1.09095</v>
       </c>
       <c r="R90" s="0">
-        <v>1.08388</v>
+        <v>1.08372</v>
       </c>
       <c r="S90" s="0">
         <v>0</v>
       </c>
       <c r="T90" s="0">
-        <v>-105</v>
+        <v>-26</v>
       </c>
       <c r="U90" s="0">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="V90" s="0">
-        <v>-56</v>
+        <v>14</v>
       </c>
       <c r="W90" s="0">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="X90" s="0">
-        <v>2.82</v>
+        <v>3.55</v>
       </c>
       <c r="Y90" s="0">
-        <v>6.05</v>
+        <v>6.18</v>
       </c>
       <c r="Z90" s="0">
-        <v>6.05</v>
+        <v>6.18</v>
       </c>
       <c r="AA90" s="0">
-        <v>-0.358</v>
+        <v>-2.401</v>
       </c>
       <c r="AB90" s="0">
-        <v>-0.223</v>
+        <v>-2.449</v>
       </c>
       <c r="AC90" s="0">
-        <v>2.75</v>
+        <v>4.31</v>
       </c>
       <c r="AD90" s="0">
-        <v>16.33</v>
+        <v>15.99</v>
       </c>
       <c r="AE90" s="0">
-        <v>16.33</v>
+        <v>15.99</v>
       </c>
       <c r="AF90" s="0">
-        <v>-2.98</v>
+        <v>-2.27</v>
       </c>
       <c r="AG90" s="0">
-        <v>5.44</v>
+        <v>5.21</v>
       </c>
       <c r="AH90" s="0">
-        <v>5.44</v>
+        <v>5.21</v>
       </c>
       <c r="AI90" s="0" t="s">
         <v>47</v>
@@ -10831,67 +10831,67 @@
         <v>200</v>
       </c>
       <c r="N91" s="0">
-        <v>300.715</v>
+        <v>300.671</v>
       </c>
       <c r="O91" s="0">
-        <v>73.56</v>
+        <v>69.6</v>
       </c>
       <c r="P91" s="0">
         <v>0</v>
       </c>
       <c r="Q91" s="0">
-        <v>0.32059</v>
+        <v>0.31132</v>
       </c>
       <c r="R91" s="0">
-        <v>0.3272</v>
+        <v>0.32715</v>
       </c>
       <c r="S91" s="0">
         <v>0</v>
       </c>
       <c r="T91" s="0">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="U91" s="0">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="V91" s="0">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="W91" s="0">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="X91" s="0">
-        <v>5.77</v>
+        <v>6.28</v>
       </c>
       <c r="Y91" s="0">
-        <v>6.18</v>
+        <v>6.54</v>
       </c>
       <c r="Z91" s="0">
-        <v>6.18</v>
+        <v>6.54</v>
       </c>
       <c r="AA91" s="0">
-        <v>-2.492</v>
+        <v>-7.741</v>
       </c>
       <c r="AB91" s="0">
-        <v>-1.532</v>
+        <v>-8.017</v>
       </c>
       <c r="AC91" s="0">
-        <v>12.31</v>
+        <v>12.69</v>
       </c>
       <c r="AD91" s="0">
-        <v>16.01</v>
+        <v>15.13</v>
       </c>
       <c r="AE91" s="0">
-        <v>16.01</v>
+        <v>15.13</v>
       </c>
       <c r="AF91" s="0">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="AG91" s="0">
-        <v>5.22</v>
+        <v>4.67</v>
       </c>
       <c r="AH91" s="0">
-        <v>5.22</v>
+        <v>4.67</v>
       </c>
       <c r="AI91" s="0" t="s">
         <v>47</v>
@@ -10938,67 +10938,67 @@
         <v>115</v>
       </c>
       <c r="N92" s="0">
-        <v>350.835</v>
+        <v>350.783</v>
       </c>
       <c r="O92" s="0">
-        <v>80.92</v>
+        <v>60.92</v>
       </c>
       <c r="P92" s="0">
         <v>0</v>
       </c>
       <c r="Q92" s="0">
-        <v>0.41144</v>
+        <v>0.31791</v>
       </c>
       <c r="R92" s="0">
-        <v>0.41149</v>
+        <v>0.41143</v>
       </c>
       <c r="S92" s="0">
         <v>0</v>
       </c>
       <c r="T92" s="0">
-        <v>199</v>
+        <v>483</v>
       </c>
       <c r="U92" s="0">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="V92" s="0">
-        <v>175</v>
+        <v>330</v>
       </c>
       <c r="W92" s="0">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="X92" s="0">
-        <v>5.97</v>
+        <v>8.8</v>
       </c>
       <c r="Y92" s="0">
-        <v>6.6</v>
+        <v>8.81</v>
       </c>
       <c r="Z92" s="0">
-        <v>6.6</v>
+        <v>8.81</v>
       </c>
       <c r="AA92" s="0">
-        <v>-0.492</v>
+        <v>-25.086</v>
       </c>
       <c r="AB92" s="0">
-        <v>0.359</v>
+        <v>-25.288</v>
       </c>
       <c r="AC92" s="0">
-        <v>10.43</v>
+        <v>10.92</v>
       </c>
       <c r="AD92" s="0">
-        <v>14.92</v>
+        <v>11.11</v>
       </c>
       <c r="AE92" s="0">
-        <v>14.92</v>
+        <v>11.11</v>
       </c>
       <c r="AF92" s="0">
-        <v>0.3</v>
+        <v>1.99</v>
       </c>
       <c r="AG92" s="0">
-        <v>4.56</v>
+        <v>2.55</v>
       </c>
       <c r="AH92" s="0">
-        <v>4.56</v>
+        <v>2.55</v>
       </c>
       <c r="AI92" s="0" t="s">
         <v>47</v>
@@ -11045,61 +11045,61 @@
         <v>115</v>
       </c>
       <c r="N93" s="0">
-        <v>350.835</v>
+        <v>350.783</v>
       </c>
       <c r="O93" s="0">
-        <v>98.08</v>
+        <v>96.08</v>
       </c>
       <c r="P93" s="0">
         <v>0</v>
       </c>
       <c r="Q93" s="0">
-        <v>0.49869</v>
+        <v>0.50139</v>
       </c>
       <c r="R93" s="0">
-        <v>0.49792</v>
+        <v>0.49784</v>
       </c>
       <c r="S93" s="0">
         <v>0</v>
       </c>
       <c r="T93" s="0">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="U93" s="0">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="V93" s="0">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="W93" s="0">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="X93" s="0">
-        <v>7.93</v>
+        <v>8.23</v>
       </c>
       <c r="Y93" s="0">
-        <v>8.58</v>
+        <v>11.44</v>
       </c>
       <c r="Z93" s="0">
-        <v>8.58</v>
+        <v>11.44</v>
       </c>
       <c r="AA93" s="0">
-        <v>-0.325</v>
+        <v>-2.358</v>
       </c>
       <c r="AB93" s="0">
-        <v>-0.287</v>
+        <v>-2.3</v>
       </c>
       <c r="AC93" s="0">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="AD93" s="0">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AE93" s="0">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AF93" s="0">
-        <v>-0.06</v>
+        <v>-0.12</v>
       </c>
       <c r="AG93" s="0">
         <v>0.02</v>
@@ -11152,58 +11152,58 @@
         <v>92</v>
       </c>
       <c r="N94" s="0">
-        <v>501.192</v>
+        <v>501.119</v>
       </c>
       <c r="O94" s="0">
-        <v>99.32</v>
+        <v>97.48</v>
       </c>
       <c r="P94" s="0">
         <v>0</v>
       </c>
       <c r="Q94" s="0">
-        <v>0.72142</v>
+        <v>0.72671</v>
       </c>
       <c r="R94" s="0">
-        <v>0.72866</v>
+        <v>0.72855</v>
       </c>
       <c r="S94" s="0">
         <v>0</v>
       </c>
       <c r="T94" s="0">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="U94" s="0">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="V94" s="0">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="W94" s="0">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="X94" s="0">
-        <v>6.09</v>
+        <v>7.03</v>
       </c>
       <c r="Y94" s="0">
-        <v>5.73</v>
+        <v>6.43</v>
       </c>
       <c r="Z94" s="0">
-        <v>5.73</v>
+        <v>6.43</v>
       </c>
       <c r="AA94" s="0">
-        <v>-1.468</v>
+        <v>-3.294</v>
       </c>
       <c r="AB94" s="0">
-        <v>-1.197</v>
+        <v>-3.136</v>
       </c>
       <c r="AC94" s="0">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="AD94" s="0">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="AE94" s="0">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="AF94" s="0">
         <v>0.09</v>
@@ -11259,61 +11259,61 @@
         <v>92</v>
       </c>
       <c r="N95" s="0">
-        <v>751.788</v>
+        <v>751.678</v>
       </c>
       <c r="O95" s="0">
-        <v>99.64</v>
+        <v>97.48</v>
       </c>
       <c r="P95" s="0">
         <v>0</v>
       </c>
       <c r="Q95" s="0">
-        <v>1.08562</v>
+        <v>1.09006</v>
       </c>
       <c r="R95" s="0">
-        <v>1.08518</v>
+        <v>1.08502</v>
       </c>
       <c r="S95" s="0">
         <v>0</v>
       </c>
       <c r="T95" s="0">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="U95" s="0">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="V95" s="0">
-        <v>159</v>
+        <v>293</v>
       </c>
       <c r="W95" s="0">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="X95" s="0">
-        <v>6.72</v>
+        <v>8.13</v>
       </c>
       <c r="Y95" s="0">
-        <v>6.63</v>
+        <v>9.07</v>
       </c>
       <c r="Z95" s="0">
-        <v>6.63</v>
+        <v>9.07</v>
       </c>
       <c r="AA95" s="0">
-        <v>-0.44</v>
+        <v>-2.598</v>
       </c>
       <c r="AB95" s="0">
-        <v>-0.403</v>
+        <v>-2.584</v>
       </c>
       <c r="AC95" s="0">
-        <v>0.9</v>
+        <v>0.58</v>
       </c>
       <c r="AD95" s="0">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="AE95" s="0">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="AF95" s="0">
-        <v>0.01</v>
+        <v>-0.09</v>
       </c>
       <c r="AG95" s="0">
         <v>0.01</v>
@@ -11366,67 +11366,67 @@
         <v>78</v>
       </c>
       <c r="N96" s="0">
-        <v>751.788</v>
+        <v>751.678</v>
       </c>
       <c r="O96" s="0">
-        <v>75.2</v>
+        <v>72.12</v>
       </c>
       <c r="P96" s="0">
         <v>0</v>
       </c>
       <c r="Q96" s="0">
-        <v>0.81934</v>
+        <v>0.80647</v>
       </c>
       <c r="R96" s="0">
-        <v>0.81627</v>
+        <v>0.81615</v>
       </c>
       <c r="S96" s="0">
         <v>0</v>
       </c>
       <c r="T96" s="0">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="U96" s="0">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="V96" s="0">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="W96" s="0">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="X96" s="0">
-        <v>7.34</v>
+        <v>7.77</v>
       </c>
       <c r="Y96" s="0">
-        <v>7.62</v>
+        <v>7.96</v>
       </c>
       <c r="Z96" s="0">
-        <v>7.62</v>
+        <v>7.96</v>
       </c>
       <c r="AA96" s="0">
-        <v>-0.106</v>
+        <v>-4.198</v>
       </c>
       <c r="AB96" s="0">
-        <v>0.773</v>
+        <v>-4.425</v>
       </c>
       <c r="AC96" s="0">
-        <v>10.73</v>
+        <v>10.91</v>
       </c>
       <c r="AD96" s="0">
-        <v>12.87</v>
+        <v>12.33</v>
       </c>
       <c r="AE96" s="0">
-        <v>12.87</v>
+        <v>12.33</v>
       </c>
       <c r="AF96" s="0">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AG96" s="0">
-        <v>3.41</v>
+        <v>3.13</v>
       </c>
       <c r="AH96" s="0">
-        <v>3.41</v>
+        <v>3.13</v>
       </c>
       <c r="AI96" s="0" t="s">
         <v>47</v>
@@ -11473,67 +11473,67 @@
         <v>115</v>
       </c>
       <c r="N97" s="0">
-        <v>300.715</v>
+        <v>300.671</v>
       </c>
       <c r="O97" s="0">
-        <v>86.64</v>
+        <v>77.2</v>
       </c>
       <c r="P97" s="0">
         <v>0</v>
       </c>
       <c r="Q97" s="0">
-        <v>0.37759</v>
+        <v>0.34531</v>
       </c>
       <c r="R97" s="0">
-        <v>0.37821</v>
+        <v>0.37815</v>
       </c>
       <c r="S97" s="0">
         <v>0</v>
       </c>
       <c r="T97" s="0">
-        <v>180</v>
+        <v>325</v>
       </c>
       <c r="U97" s="0">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="V97" s="0">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="W97" s="0">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="X97" s="0">
-        <v>5.78</v>
+        <v>7.18</v>
       </c>
       <c r="Y97" s="0">
-        <v>6.71</v>
+        <v>7.54</v>
       </c>
       <c r="Z97" s="0">
-        <v>6.71</v>
+        <v>7.54</v>
       </c>
       <c r="AA97" s="0">
-        <v>-0.642</v>
+        <v>-11.468</v>
       </c>
       <c r="AB97" s="0">
-        <v>0.129</v>
+        <v>-11.602</v>
       </c>
       <c r="AC97" s="0">
-        <v>9.16</v>
+        <v>10.44</v>
       </c>
       <c r="AD97" s="0">
-        <v>14.73</v>
+        <v>13.09</v>
       </c>
       <c r="AE97" s="0">
-        <v>14.73</v>
+        <v>13.09</v>
       </c>
       <c r="AF97" s="0">
-        <v>-0.04</v>
+        <v>1</v>
       </c>
       <c r="AG97" s="0">
-        <v>4.43</v>
+        <v>3.5</v>
       </c>
       <c r="AH97" s="0">
-        <v>4.43</v>
+        <v>3.5</v>
       </c>
       <c r="AI97" s="0" t="s">
         <v>47</v>
@@ -11580,67 +11580,67 @@
         <v>115</v>
       </c>
       <c r="N98" s="0">
-        <v>927.206</v>
+        <v>927.07</v>
       </c>
       <c r="O98" s="0">
-        <v>82.92</v>
+        <v>80.28</v>
       </c>
       <c r="P98" s="0">
         <v>0</v>
       </c>
       <c r="Q98" s="0">
-        <v>1.11425</v>
+        <v>1.10719</v>
       </c>
       <c r="R98" s="0">
-        <v>1.11425</v>
+        <v>1.11409</v>
       </c>
       <c r="S98" s="0">
         <v>0</v>
       </c>
       <c r="T98" s="0">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="U98" s="0">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V98" s="0">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="W98" s="0">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="X98" s="0">
-        <v>4.92</v>
+        <v>5.28</v>
       </c>
       <c r="Y98" s="0">
-        <v>5.8</v>
+        <v>5.99</v>
       </c>
       <c r="Z98" s="0">
-        <v>5.8</v>
+        <v>5.99</v>
       </c>
       <c r="AA98" s="0">
-        <v>-0.48</v>
+        <v>-3.649</v>
       </c>
       <c r="AB98" s="0">
-        <v>0.385</v>
+        <v>-3.849</v>
       </c>
       <c r="AC98" s="0">
-        <v>10.53</v>
+        <v>11.01</v>
       </c>
       <c r="AD98" s="0">
-        <v>17.05</v>
+        <v>16.49</v>
       </c>
       <c r="AE98" s="0">
-        <v>17.05</v>
+        <v>16.49</v>
       </c>
       <c r="AF98" s="0">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AG98" s="0">
-        <v>5.92</v>
+        <v>5.55</v>
       </c>
       <c r="AH98" s="0">
-        <v>5.92</v>
+        <v>5.55</v>
       </c>
       <c r="AI98" s="0" t="s">
         <v>47</v>
@@ -11687,67 +11687,67 @@
         <v>115</v>
       </c>
       <c r="N99" s="0">
-        <v>576.371</v>
+        <v>576.287</v>
       </c>
       <c r="O99" s="0">
-        <v>92.88</v>
+        <v>90.4</v>
       </c>
       <c r="P99" s="0">
         <v>0</v>
       </c>
       <c r="Q99" s="0">
-        <v>0.77584</v>
+        <v>0.77502</v>
       </c>
       <c r="R99" s="0">
-        <v>0.77478</v>
+        <v>0.77466</v>
       </c>
       <c r="S99" s="0">
         <v>0</v>
       </c>
       <c r="T99" s="0">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="U99" s="0">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="V99" s="0">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="W99" s="0">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="X99" s="0">
-        <v>3.99</v>
+        <v>4.4</v>
       </c>
       <c r="Y99" s="0">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="Z99" s="0">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="AA99" s="0">
-        <v>-0.343</v>
+        <v>-3.004</v>
       </c>
       <c r="AB99" s="0">
-        <v>0.314</v>
+        <v>-3.073</v>
       </c>
       <c r="AC99" s="0">
-        <v>7.66</v>
+        <v>8.2</v>
       </c>
       <c r="AD99" s="0">
-        <v>17.28</v>
+        <v>16.81</v>
       </c>
       <c r="AE99" s="0">
-        <v>17.28</v>
+        <v>16.81</v>
       </c>
       <c r="AF99" s="0">
-        <v>-1.07</v>
+        <v>-0.66</v>
       </c>
       <c r="AG99" s="0">
-        <v>6.08</v>
+        <v>5.76</v>
       </c>
       <c r="AH99" s="0">
-        <v>6.08</v>
+        <v>5.76</v>
       </c>
       <c r="AI99" s="0" t="s">
         <v>47</v>
@@ -11794,67 +11794,67 @@
         <v>115</v>
       </c>
       <c r="N100" s="0">
-        <v>501.192</v>
+        <v>501.119</v>
       </c>
       <c r="O100" s="0">
-        <v>68.44</v>
+        <v>66.44</v>
       </c>
       <c r="P100" s="0">
         <v>0</v>
       </c>
       <c r="Q100" s="0">
-        <v>0.49712</v>
+        <v>0.49531</v>
       </c>
       <c r="R100" s="0">
-        <v>0.49531</v>
+        <v>0.49524</v>
       </c>
       <c r="S100" s="0">
         <v>0</v>
       </c>
       <c r="T100" s="0">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="U100" s="0">
-        <v>-4</v>
+        <v>29</v>
       </c>
       <c r="V100" s="0">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="W100" s="0">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="X100" s="0">
-        <v>5.26</v>
+        <v>5.49</v>
       </c>
       <c r="Y100" s="0">
-        <v>5.51</v>
+        <v>5.67</v>
       </c>
       <c r="Z100" s="0">
-        <v>5.51</v>
+        <v>5.67</v>
       </c>
       <c r="AA100" s="0">
-        <v>-0.117</v>
+        <v>-3.036</v>
       </c>
       <c r="AB100" s="0">
-        <v>0.961</v>
+        <v>-3.404</v>
       </c>
       <c r="AC100" s="0">
-        <v>14.08</v>
+        <v>14.23</v>
       </c>
       <c r="AD100" s="0">
-        <v>18.08</v>
+        <v>17.55</v>
       </c>
       <c r="AE100" s="0">
-        <v>18.08</v>
+        <v>17.55</v>
       </c>
       <c r="AF100" s="0">
-        <v>1.52</v>
+        <v>2.13</v>
       </c>
       <c r="AG100" s="0">
-        <v>6.62</v>
+        <v>6.24</v>
       </c>
       <c r="AH100" s="0">
-        <v>6.62</v>
+        <v>6.24</v>
       </c>
       <c r="AI100" s="0" t="s">
         <v>47</v>
@@ -11901,67 +11901,67 @@
         <v>115</v>
       </c>
       <c r="N101" s="0">
-        <v>751.788</v>
+        <v>751.678</v>
       </c>
       <c r="O101" s="0">
-        <v>72.76</v>
+        <v>71.4</v>
       </c>
       <c r="P101" s="0">
         <v>0</v>
       </c>
       <c r="Q101" s="0">
-        <v>0.79275</v>
+        <v>0.79842</v>
       </c>
       <c r="R101" s="0">
-        <v>0.79155</v>
+        <v>0.79143</v>
       </c>
       <c r="S101" s="0">
         <v>0</v>
       </c>
       <c r="T101" s="0">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="U101" s="0">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="V101" s="0">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="W101" s="0">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="X101" s="0">
-        <v>5.15</v>
+        <v>5.31</v>
       </c>
       <c r="Y101" s="0">
-        <v>5.52</v>
+        <v>5.63</v>
       </c>
       <c r="Z101" s="0">
-        <v>5.52</v>
+        <v>5.63</v>
       </c>
       <c r="AA101" s="0">
-        <v>-0.329</v>
+        <v>-2.192</v>
       </c>
       <c r="AB101" s="0">
-        <v>0.709</v>
+        <v>-2.519</v>
       </c>
       <c r="AC101" s="0">
-        <v>13.1</v>
+        <v>13.24</v>
       </c>
       <c r="AD101" s="0">
-        <v>18.02</v>
+        <v>17.68</v>
       </c>
       <c r="AE101" s="0">
-        <v>18.02</v>
+        <v>17.68</v>
       </c>
       <c r="AF101" s="0">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AG101" s="0">
-        <v>6.57</v>
+        <v>6.33</v>
       </c>
       <c r="AH101" s="0">
-        <v>6.57</v>
+        <v>6.33</v>
       </c>
       <c r="AI101" s="0" t="s">
         <v>47</v>
@@ -12008,67 +12008,67 @@
         <v>115</v>
       </c>
       <c r="N102" s="0">
-        <v>451.073</v>
+        <v>451.007</v>
       </c>
       <c r="O102" s="0">
-        <v>80.88</v>
+        <v>78.6</v>
       </c>
       <c r="P102" s="0">
         <v>0</v>
       </c>
       <c r="Q102" s="0">
-        <v>0.52873</v>
+        <v>0.52736</v>
       </c>
       <c r="R102" s="0">
-        <v>0.52984</v>
+        <v>0.52976</v>
       </c>
       <c r="S102" s="0">
         <v>0</v>
       </c>
       <c r="T102" s="0">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="U102" s="0">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="V102" s="0">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="W102" s="0">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="X102" s="0">
-        <v>4.91</v>
+        <v>5.2</v>
       </c>
       <c r="Y102" s="0">
-        <v>5.59</v>
+        <v>5.75</v>
       </c>
       <c r="Z102" s="0">
-        <v>5.59</v>
+        <v>5.75</v>
       </c>
       <c r="AA102" s="0">
-        <v>-0.688</v>
+        <v>-3.487</v>
       </c>
       <c r="AB102" s="0">
-        <v>0.239</v>
+        <v>-3.733</v>
       </c>
       <c r="AC102" s="0">
-        <v>11.53</v>
+        <v>11.78</v>
       </c>
       <c r="AD102" s="0">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
       <c r="AE102" s="0">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
       <c r="AF102" s="0">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="AG102" s="0">
-        <v>6.41</v>
+        <v>6.06</v>
       </c>
       <c r="AH102" s="0">
-        <v>6.41</v>
+        <v>6.06</v>
       </c>
       <c r="AI102" s="0" t="s">
         <v>47</v>
@@ -12115,67 +12115,67 @@
         <v>115</v>
       </c>
       <c r="N103" s="0">
-        <v>576.371</v>
+        <v>576.287</v>
       </c>
       <c r="O103" s="0">
-        <v>97.64</v>
+        <v>95.64</v>
       </c>
       <c r="P103" s="0">
         <v>0</v>
       </c>
       <c r="Q103" s="0">
-        <v>0.8156</v>
+        <v>0.81994</v>
       </c>
       <c r="R103" s="0">
-        <v>0.81401</v>
+        <v>0.81389</v>
       </c>
       <c r="S103" s="0">
         <v>0</v>
       </c>
       <c r="T103" s="0">
-        <v>-69</v>
+        <v>-14</v>
       </c>
       <c r="U103" s="0">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="V103" s="0">
-        <v>-17</v>
+        <v>28</v>
       </c>
       <c r="W103" s="0">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="X103" s="0">
-        <v>3.2</v>
+        <v>3.67</v>
       </c>
       <c r="Y103" s="0">
-        <v>5.66</v>
+        <v>5.78</v>
       </c>
       <c r="Z103" s="0">
-        <v>5.66</v>
+        <v>5.78</v>
       </c>
       <c r="AA103" s="0">
-        <v>-0.286</v>
+        <v>-2.328</v>
       </c>
       <c r="AB103" s="0">
-        <v>0.094</v>
+        <v>-2.355</v>
       </c>
       <c r="AC103" s="0">
-        <v>4.88</v>
+        <v>5.74</v>
       </c>
       <c r="AD103" s="0">
-        <v>17.58</v>
+        <v>17.22</v>
       </c>
       <c r="AE103" s="0">
-        <v>17.58</v>
+        <v>17.22</v>
       </c>
       <c r="AF103" s="0">
-        <v>-2.24</v>
+        <v>-1.9</v>
       </c>
       <c r="AG103" s="0">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="AH103" s="0">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="AI103" s="0" t="s">
         <v>47</v>
@@ -12222,61 +12222,61 @@
         <v>55</v>
       </c>
       <c r="N104" s="0">
-        <v>300.715</v>
+        <v>300.671</v>
       </c>
       <c r="O104" s="0">
-        <v>95.12</v>
+        <v>93.92</v>
       </c>
       <c r="P104" s="0">
         <v>0</v>
       </c>
       <c r="Q104" s="0">
-        <v>0.41455</v>
+        <v>0.4201</v>
       </c>
       <c r="R104" s="0">
-        <v>0.41724</v>
+        <v>0.41718</v>
       </c>
       <c r="S104" s="0">
         <v>0</v>
       </c>
       <c r="T104" s="0">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="U104" s="0">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="V104" s="0">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="W104" s="0">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="X104" s="0">
-        <v>6.21</v>
+        <v>6.41</v>
       </c>
       <c r="Y104" s="0">
-        <v>6.37</v>
+        <v>6.61</v>
       </c>
       <c r="Z104" s="0">
-        <v>6.37</v>
+        <v>6.61</v>
       </c>
       <c r="AA104" s="0">
-        <v>-1.123</v>
+        <v>-2.37</v>
       </c>
       <c r="AB104" s="0">
-        <v>-0.562</v>
+        <v>-2.26</v>
       </c>
       <c r="AC104" s="0">
-        <v>5.14</v>
+        <v>5.07</v>
       </c>
       <c r="AD104" s="0">
-        <v>5.29</v>
+        <v>5.27</v>
       </c>
       <c r="AE104" s="0">
-        <v>5.29</v>
+        <v>5.27</v>
       </c>
       <c r="AF104" s="0">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="AG104" s="0">
         <v>0.35</v>
@@ -12329,67 +12329,67 @@
         <v>115</v>
       </c>
       <c r="N105" s="0">
-        <v>300.715</v>
+        <v>300.671</v>
       </c>
       <c r="O105" s="0">
-        <v>77.88</v>
+        <v>74.56</v>
       </c>
       <c r="P105" s="0">
         <v>0</v>
       </c>
       <c r="Q105" s="0">
-        <v>0.33941</v>
+        <v>0.3335</v>
       </c>
       <c r="R105" s="0">
-        <v>0.34091</v>
+        <v>0.34086</v>
       </c>
       <c r="S105" s="0">
         <v>0</v>
       </c>
       <c r="T105" s="0">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="U105" s="0">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="V105" s="0">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="W105" s="0">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="X105" s="0">
-        <v>5.9</v>
+        <v>6.33</v>
       </c>
       <c r="Y105" s="0">
-        <v>6.29</v>
+        <v>6.58</v>
       </c>
       <c r="Z105" s="0">
-        <v>6.29</v>
+        <v>6.58</v>
       </c>
       <c r="AA105" s="0">
-        <v>-0.916</v>
+        <v>-5.14</v>
       </c>
       <c r="AB105" s="0">
-        <v>-0.023</v>
+        <v>-5.377</v>
       </c>
       <c r="AC105" s="0">
-        <v>11.36</v>
+        <v>11.67</v>
       </c>
       <c r="AD105" s="0">
-        <v>15.81</v>
+        <v>15.12</v>
       </c>
       <c r="AE105" s="0">
-        <v>15.81</v>
+        <v>15.12</v>
       </c>
       <c r="AF105" s="0">
-        <v>0.82</v>
+        <v>1.58</v>
       </c>
       <c r="AG105" s="0">
-        <v>5.06</v>
+        <v>4.64</v>
       </c>
       <c r="AH105" s="0">
-        <v>5.06</v>
+        <v>4.64</v>
       </c>
       <c r="AI105" s="0" t="s">
         <v>47</v>
@@ -12436,61 +12436,61 @@
         <v>115</v>
       </c>
       <c r="N106" s="0">
-        <v>300.715</v>
+        <v>300.671</v>
       </c>
       <c r="O106" s="0">
-        <v>84.32</v>
+        <v>82.92</v>
       </c>
       <c r="P106" s="0">
         <v>0</v>
       </c>
       <c r="Q106" s="0">
-        <v>0.36748</v>
+        <v>0.3709</v>
       </c>
       <c r="R106" s="0">
-        <v>0.3678</v>
+        <v>0.36774</v>
       </c>
       <c r="S106" s="0">
         <v>0</v>
       </c>
       <c r="T106" s="0">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="U106" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V106" s="0">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="W106" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="X106" s="0">
-        <v>7.91</v>
+        <v>8.03</v>
       </c>
       <c r="Y106" s="0">
-        <v>9.7</v>
+        <v>10.24</v>
       </c>
       <c r="Z106" s="0">
-        <v>9.7</v>
+        <v>10.24</v>
       </c>
       <c r="AA106" s="0">
-        <v>-0.566</v>
+        <v>-2.217</v>
       </c>
       <c r="AB106" s="0">
-        <v>-0.524</v>
+        <v>-2.15</v>
       </c>
       <c r="AC106" s="0">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AD106" s="0">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="AE106" s="0">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="AF106" s="0">
-        <v>-0.08</v>
+        <v>-0.14</v>
       </c>
       <c r="AG106" s="0">
         <v>0.12</v>
@@ -12546,13 +12546,13 @@
         <v>1250</v>
       </c>
       <c r="O107" s="0">
-        <v>72.44</v>
+        <v>70.32</v>
       </c>
       <c r="P107" s="0">
         <v>0</v>
       </c>
       <c r="Q107" s="0">
-        <v>1.31231</v>
+        <v>1.30765</v>
       </c>
       <c r="R107" s="0">
         <v>1.31971</v>
@@ -12561,49 +12561,49 @@
         <v>0</v>
       </c>
       <c r="T107" s="0">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="U107" s="0">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="V107" s="0">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="W107" s="0">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="X107" s="0">
-        <v>5.52</v>
+        <v>5.79</v>
       </c>
       <c r="Y107" s="0">
-        <v>5.93</v>
+        <v>6.11</v>
       </c>
       <c r="Z107" s="0">
-        <v>5.93</v>
+        <v>6.11</v>
       </c>
       <c r="AA107" s="0">
-        <v>-1.038</v>
+        <v>-3.934</v>
       </c>
       <c r="AB107" s="0">
-        <v>-0.021</v>
+        <v>-4.245</v>
       </c>
       <c r="AC107" s="0">
-        <v>12.84</v>
+        <v>13.07</v>
       </c>
       <c r="AD107" s="0">
-        <v>16.71</v>
+        <v>16.21</v>
       </c>
       <c r="AE107" s="0">
-        <v>16.71</v>
+        <v>16.21</v>
       </c>
       <c r="AF107" s="0">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="AG107" s="0">
-        <v>5.68</v>
+        <v>5.35</v>
       </c>
       <c r="AH107" s="0">
-        <v>5.68</v>
+        <v>5.35</v>
       </c>
       <c r="AI107" s="0" t="s">
         <v>47</v>
@@ -12653,13 +12653,13 @@
         <v>1050</v>
       </c>
       <c r="O108" s="0">
-        <v>72.88</v>
+        <v>70.72</v>
       </c>
       <c r="P108" s="0">
         <v>0</v>
       </c>
       <c r="Q108" s="0">
-        <v>1.10904</v>
+        <v>1.10467</v>
       </c>
       <c r="R108" s="0">
         <v>1.10977</v>
@@ -12668,49 +12668,49 @@
         <v>0</v>
       </c>
       <c r="T108" s="0">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="U108" s="0">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="V108" s="0">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="W108" s="0">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="X108" s="0">
-        <v>5.67</v>
+        <v>5.94</v>
       </c>
       <c r="Y108" s="0">
-        <v>6.06</v>
+        <v>6.25</v>
       </c>
       <c r="Z108" s="0">
-        <v>6.06</v>
+        <v>6.25</v>
       </c>
       <c r="AA108" s="0">
-        <v>-0.546</v>
+        <v>-3.493</v>
       </c>
       <c r="AB108" s="0">
-        <v>0.458</v>
+        <v>-3.796</v>
       </c>
       <c r="AC108" s="0">
-        <v>12.6</v>
+        <v>12.82</v>
       </c>
       <c r="AD108" s="0">
-        <v>16.33</v>
+        <v>15.83</v>
       </c>
       <c r="AE108" s="0">
-        <v>16.33</v>
+        <v>15.83</v>
       </c>
       <c r="AF108" s="0">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AG108" s="0">
-        <v>5.43</v>
+        <v>5.11</v>
       </c>
       <c r="AH108" s="0">
-        <v>5.43</v>
+        <v>5.11</v>
       </c>
       <c r="AI108" s="0" t="s">
         <v>47</v>
@@ -12760,13 +12760,13 @@
         <v>1170</v>
       </c>
       <c r="O109" s="0">
-        <v>78</v>
+        <v>75.24</v>
       </c>
       <c r="P109" s="0">
         <v>0</v>
       </c>
       <c r="Q109" s="0">
-        <v>1.3226</v>
+        <v>1.3096</v>
       </c>
       <c r="R109" s="0">
         <v>1.33043</v>
@@ -12775,49 +12775,49 @@
         <v>0</v>
       </c>
       <c r="T109" s="0">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="U109" s="0">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="V109" s="0">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="W109" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="X109" s="0">
-        <v>5.51</v>
+        <v>5.86</v>
       </c>
       <c r="Y109" s="0">
-        <v>6.09</v>
+        <v>6.31</v>
       </c>
       <c r="Z109" s="0">
-        <v>6.09</v>
+        <v>6.31</v>
       </c>
       <c r="AA109" s="0">
-        <v>-1.065</v>
+        <v>-4.566</v>
       </c>
       <c r="AB109" s="0">
-        <v>-0.15</v>
+        <v>-4.809</v>
       </c>
       <c r="AC109" s="0">
-        <v>11.52</v>
+        <v>11.84</v>
       </c>
       <c r="AD109" s="0">
-        <v>16.26</v>
+        <v>15.68</v>
       </c>
       <c r="AE109" s="0">
-        <v>16.26</v>
+        <v>15.68</v>
       </c>
       <c r="AF109" s="0">
-        <v>0.63</v>
+        <v>1.28</v>
       </c>
       <c r="AG109" s="0">
-        <v>5.38</v>
+        <v>5.01</v>
       </c>
       <c r="AH109" s="0">
-        <v>5.38</v>
+        <v>5.01</v>
       </c>
       <c r="AI109" s="0" t="s">
         <v>47</v>
@@ -12867,64 +12867,64 @@
         <v>2012.5</v>
       </c>
       <c r="O110" s="0">
-        <v>79.04</v>
+        <v>75.8</v>
       </c>
       <c r="P110" s="0">
         <v>0</v>
       </c>
       <c r="Q110" s="0">
-        <v>2.30532</v>
+        <v>2.26938</v>
       </c>
       <c r="R110" s="0">
-        <v>2.32909</v>
+        <v>2.32908</v>
       </c>
       <c r="S110" s="0">
         <v>0</v>
       </c>
       <c r="T110" s="0">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="U110" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="V110" s="0">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="W110" s="0">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="X110" s="0">
-        <v>5.44</v>
+        <v>5.87</v>
       </c>
       <c r="Y110" s="0">
-        <v>6.07</v>
+        <v>6.33</v>
       </c>
       <c r="Z110" s="0">
-        <v>6.07</v>
+        <v>6.33</v>
       </c>
       <c r="AA110" s="0">
-        <v>-1.496</v>
+        <v>-5.533</v>
       </c>
       <c r="AB110" s="0">
-        <v>-0.597</v>
+        <v>-5.763</v>
       </c>
       <c r="AC110" s="0">
-        <v>11.28</v>
+        <v>11.71</v>
       </c>
       <c r="AD110" s="0">
-        <v>16.31</v>
+        <v>15.62</v>
       </c>
       <c r="AE110" s="0">
-        <v>16.31</v>
+        <v>15.62</v>
       </c>
       <c r="AF110" s="0">
-        <v>0.41</v>
+        <v>1.18</v>
       </c>
       <c r="AG110" s="0">
-        <v>5.41</v>
+        <v>4.97</v>
       </c>
       <c r="AH110" s="0">
-        <v>5.41</v>
+        <v>4.97</v>
       </c>
       <c r="AI110" s="0" t="s">
         <v>47</v>
@@ -12974,13 +12974,13 @@
         <v>690</v>
       </c>
       <c r="O111" s="0">
-        <v>94.9</v>
+        <v>91.36</v>
       </c>
       <c r="P111" s="0">
         <v>0</v>
       </c>
       <c r="Q111" s="0">
-        <v>0.94895</v>
+        <v>0.9378</v>
       </c>
       <c r="R111" s="0">
         <v>0.9518</v>
@@ -12989,49 +12989,49 @@
         <v>0</v>
       </c>
       <c r="T111" s="0">
-        <v>-3</v>
+        <v>79</v>
       </c>
       <c r="U111" s="0">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="V111" s="0">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="W111" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="X111" s="0">
-        <v>3.88</v>
+        <v>4.64</v>
       </c>
       <c r="Y111" s="0">
-        <v>5.99</v>
+        <v>6.22</v>
       </c>
       <c r="Z111" s="0">
-        <v>5.99</v>
+        <v>6.22</v>
       </c>
       <c r="AA111" s="0">
-        <v>-0.778</v>
+        <v>-4.475</v>
       </c>
       <c r="AB111" s="0">
-        <v>-0.325</v>
+        <v>-4.511</v>
       </c>
       <c r="AC111" s="0">
-        <v>5.82</v>
+        <v>7.2</v>
       </c>
       <c r="AD111" s="0">
-        <v>16.54</v>
+        <v>15.91</v>
       </c>
       <c r="AE111" s="0">
-        <v>16.54</v>
+        <v>15.91</v>
       </c>
       <c r="AF111" s="0">
-        <v>-1.96</v>
+        <v>-1.46</v>
       </c>
       <c r="AG111" s="0">
-        <v>5.56</v>
+        <v>5.15</v>
       </c>
       <c r="AH111" s="0">
-        <v>5.56</v>
+        <v>5.15</v>
       </c>
       <c r="AI111" s="0" t="s">
         <v>47</v>
@@ -13081,49 +13081,49 @@
         <v>1725</v>
       </c>
       <c r="O112" s="0">
-        <v>98.6</v>
+        <v>97.88</v>
       </c>
       <c r="P112" s="0">
         <v>0</v>
       </c>
       <c r="Q112" s="0">
-        <v>2.46499</v>
+        <v>2.51181</v>
       </c>
       <c r="R112" s="0">
-        <v>2.46311</v>
+        <v>2.4631</v>
       </c>
       <c r="S112" s="0">
         <v>0</v>
       </c>
       <c r="T112" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="U112" s="0">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V112" s="0">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="W112" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="X112" s="0">
-        <v>7.97</v>
+        <v>8.24</v>
       </c>
       <c r="Y112" s="0">
-        <v>9.73</v>
+        <v>11.44</v>
       </c>
       <c r="Z112" s="0">
-        <v>9.73</v>
+        <v>11.44</v>
       </c>
       <c r="AA112" s="0">
-        <v>-0.404</v>
+        <v>-1.131</v>
       </c>
       <c r="AB112" s="0">
-        <v>-0.408</v>
+        <v>-1.18</v>
       </c>
       <c r="AC112" s="0">
-        <v>0.11</v>
+        <v>-0.01</v>
       </c>
       <c r="AD112" s="0">
         <v>0.43</v>
@@ -13132,7 +13132,7 @@
         <v>0.43</v>
       </c>
       <c r="AF112" s="0">
-        <v>-0.11</v>
+        <v>-0.14</v>
       </c>
       <c r="AG112" s="0">
         <v>0</v>
@@ -13188,13 +13188,13 @@
         <v>840</v>
       </c>
       <c r="O113" s="0">
-        <v>100.6</v>
+        <v>99.08</v>
       </c>
       <c r="P113" s="0">
         <v>0</v>
       </c>
       <c r="Q113" s="0">
-        <v>1.22469</v>
+        <v>1.23814</v>
       </c>
       <c r="R113" s="0">
         <v>1.22414</v>
@@ -13203,34 +13203,34 @@
         <v>0</v>
       </c>
       <c r="T113" s="0">
-        <v>113</v>
+        <v>269</v>
       </c>
       <c r="U113" s="0">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="V113" s="0">
-        <v>136</v>
+        <v>293</v>
       </c>
       <c r="W113" s="0">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="X113" s="0">
-        <v>6.27</v>
+        <v>8.29</v>
       </c>
       <c r="Y113" s="0">
-        <v>6.34</v>
+        <v>8.03</v>
       </c>
       <c r="Z113" s="0">
-        <v>6.34</v>
+        <v>8.03</v>
       </c>
       <c r="AA113" s="0">
-        <v>-0.435</v>
+        <v>-1.94</v>
       </c>
       <c r="AB113" s="0">
-        <v>-0.399</v>
+        <v>-1.926</v>
       </c>
       <c r="AC113" s="0">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="AD113" s="0">
         <v>0.9</v>
@@ -13239,7 +13239,7 @@
         <v>0.9</v>
       </c>
       <c r="AF113" s="0">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="AG113" s="0">
         <v>0.01</v>
